--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkim/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B81BE-7E2E-9547-90C8-55FA17A75C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96791ED3-0F28-F64A-B0BA-30F83D0423DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -688,31 +688,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -721,7 +709,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1069,104 +1069,101 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="6"/>
+    <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="13">
         <v>45376</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>45377</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>45378</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1174,19 +1171,19 @@
       <c r="A7" s="1">
         <v>45379</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1194,95 +1191,95 @@
       <c r="A8" s="1">
         <v>45380</v>
       </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12">
+        <v>45381</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
-        <v>45381</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11">
+        <v>45382</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>45382</v>
-      </c>
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1290,19 +1287,19 @@
       <c r="A13" s="1">
         <v>45383</v>
       </c>
-      <c r="B13" s="6">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1310,19 +1307,19 @@
       <c r="A14" s="1">
         <v>45384</v>
       </c>
-      <c r="B14" s="6">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1330,19 +1327,19 @@
       <c r="A15" s="1">
         <v>45385</v>
       </c>
-      <c r="B15" s="6">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1350,19 +1347,19 @@
       <c r="A16" s="1">
         <v>45386</v>
       </c>
-      <c r="B16" s="6">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1370,95 +1367,95 @@
       <c r="A17" s="1">
         <v>45387</v>
       </c>
-      <c r="B17" s="6">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>45388</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3">
-        <v>45388</v>
-      </c>
-      <c r="B18" s="6">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11">
+        <v>45389</v>
+      </c>
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>45389</v>
-      </c>
-      <c r="B20" s="6">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1466,19 +1463,19 @@
       <c r="A22" s="1">
         <v>45390</v>
       </c>
-      <c r="B22" s="6">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1486,19 +1483,19 @@
       <c r="A23" s="1">
         <v>45391</v>
       </c>
-      <c r="B23" s="6">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1506,19 +1503,19 @@
       <c r="A24" s="1">
         <v>45392</v>
       </c>
-      <c r="B24" s="6">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="3">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1526,19 +1523,19 @@
       <c r="A25" s="1">
         <v>45393</v>
       </c>
-      <c r="B25" s="6">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1546,95 +1543,95 @@
       <c r="A26" s="1">
         <v>45394</v>
       </c>
-      <c r="B26" s="6">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>45395</v>
+      </c>
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>45395</v>
-      </c>
-      <c r="B27" s="6">
-        <v>21</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6">
-        <v>22</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="F28" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
+        <v>45396</v>
+      </c>
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2">
-        <v>45396</v>
-      </c>
-      <c r="B29" s="6">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1642,19 +1639,19 @@
       <c r="A31" s="1">
         <v>45397</v>
       </c>
-      <c r="B31" s="6">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1662,19 +1659,19 @@
       <c r="A32" s="1">
         <v>45398</v>
       </c>
-      <c r="B32" s="6">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1682,19 +1679,19 @@
       <c r="A33" s="1">
         <v>45399</v>
       </c>
-      <c r="B33" s="6">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="3">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1702,19 +1699,19 @@
       <c r="A34" s="1">
         <v>45400</v>
       </c>
-      <c r="B34" s="6">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1722,71 +1719,71 @@
       <c r="A35" s="1">
         <v>45401</v>
       </c>
-      <c r="B35" s="6">
-        <v>29</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="12">
+        <v>45402</v>
+      </c>
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3">
-        <v>45402</v>
-      </c>
-      <c r="B36" s="6">
-        <v>30</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="F36" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6">
-        <v>31</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="F37" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11">
+        <v>45403</v>
+      </c>
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2">
-        <v>45403</v>
-      </c>
-      <c r="B38" s="6">
-        <v>32</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11"/>
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6">
-        <v>33</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1794,13 +1791,13 @@
       <c r="A40" s="1">
         <v>45404</v>
       </c>
-      <c r="B40" s="6">
-        <v>34</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1808,13 +1805,13 @@
       <c r="A41" s="1">
         <v>45405</v>
       </c>
-      <c r="B41" s="6">
-        <v>35</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="13" t="s">
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1822,13 +1819,13 @@
       <c r="A42" s="1">
         <v>45406</v>
       </c>
-      <c r="B42" s="6">
-        <v>36</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="13" t="s">
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1836,564 +1833,569 @@
       <c r="A43" s="1">
         <v>45407</v>
       </c>
-      <c r="B43" s="6">
-        <v>37</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="B43" s="3">
+        <v>38</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="6">
-        <v>38</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="6">
-        <v>39</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="3">
+        <v>41</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="6">
-        <v>40</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="3">
+        <v>42</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="6">
-        <v>41</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="3">
+        <v>43</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="6">
-        <v>42</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="F48" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="3">
+        <v>44</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="6">
-        <v>43</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="3">
+        <v>45</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="6">
-        <v>44</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="F50" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="3">
+        <v>46</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="6">
-        <v>45</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="F51" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="3">
+        <v>47</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="6">
-        <v>46</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="F52" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="3">
+        <v>48</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="6">
-        <v>47</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="F53" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="3">
+        <v>49</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="6">
-        <v>48</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="3">
+        <v>50</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="6">
-        <v>49</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="F55" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="3">
+        <v>51</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="6">
-        <v>50</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="3">
+        <v>52</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="6">
-        <v>51</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="3">
+        <v>53</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="6">
-        <v>52</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="3">
+        <v>54</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="6">
-        <v>53</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="3">
+        <v>55</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="6">
-        <v>54</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="F60" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="3">
+        <v>56</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="6">
-        <v>55</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="F61" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="3">
+        <v>57</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="6">
-        <v>56</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="F62" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="3">
+        <v>58</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="6">
-        <v>57</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="F63" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="E64" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="6">
-        <v>58</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="F64" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="12" t="s">
+      <c r="F66" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="12" t="s">
+      <c r="F67" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="12" t="s">
+      <c r="F68" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" s="12" t="s">
+      <c r="F69" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="12" t="s">
+      <c r="F70" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" s="12" t="s">
+      <c r="F71" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="12" t="s">
+      <c r="F72" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="E73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="12" t="s">
+      <c r="F73" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="E74" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6">
-      <c r="E74" s="12" t="s">
+      <c r="F74" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6">
+      <c r="E75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6">
-      <c r="E75" s="12" t="s">
+      <c r="F75" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="E76" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="12" t="s">
+      <c r="F76" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6">
-      <c r="E77" s="12" t="s">
+      <c r="F77" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6">
+      <c r="E78" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6">
-      <c r="E78" s="12" t="s">
+      <c r="F78" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6">
+      <c r="E79" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6">
-      <c r="E79" s="12" t="s">
+      <c r="F79" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6">
+      <c r="E80" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" s="12" t="s">
+      <c r="F80" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="E81" s="12" t="s">
+      <c r="F81" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" s="12" t="s">
+      <c r="F82" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="E83" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="E83" s="12" t="s">
+      <c r="F83" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" s="12" t="s">
+      <c r="F84" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" s="12" t="s">
+      <c r="F85" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="E86" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" s="12" t="s">
+      <c r="F86" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="E87" s="12" t="s">
+      <c r="F87" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="E88" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="E88" s="12" t="s">
+      <c r="F88" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" s="12" t="s">
+      <c r="F89" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" s="12" t="s">
+      <c r="F90" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="E91" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="E91" s="12" t="s">
+      <c r="F91" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="E92" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6">
-      <c r="E92" s="12" t="s">
+      <c r="F92" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="E93" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" s="12" t="s">
+      <c r="F93" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="E94" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6">
-      <c r="E94" s="12" t="s">
+      <c r="F94" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6">
+      <c r="E95" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6">
-      <c r="E95" s="12" t="s">
+      <c r="F95" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6">
+      <c r="E96" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6">
-      <c r="E96" s="12" t="s">
+      <c r="F96" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="12" t="s">
+      <c r="F97" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" s="12" t="s">
+      <c r="F98" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" s="12" t="s">
+      <c r="F99" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="12" t="s">
+      <c r="F100" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" s="12" t="s">
+      <c r="F101" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" s="12" t="s">
+      <c r="F102" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="12" t="s">
+      <c r="F103" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="12" t="s">
+      <c r="F104" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F104" s="13" t="s">
+      <c r="F105" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2416,106 +2418,106 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E104" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
-    <hyperlink ref="E103" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
-    <hyperlink ref="E102" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
-    <hyperlink ref="E101" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
-    <hyperlink ref="E100" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
-    <hyperlink ref="E99" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
-    <hyperlink ref="E98" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
-    <hyperlink ref="E97" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
-    <hyperlink ref="E96" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
-    <hyperlink ref="E95" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
-    <hyperlink ref="E94" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
-    <hyperlink ref="E93" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
-    <hyperlink ref="E92" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
-    <hyperlink ref="E91" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
-    <hyperlink ref="E90" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
-    <hyperlink ref="E89" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
-    <hyperlink ref="E88" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
-    <hyperlink ref="E87" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
-    <hyperlink ref="E86" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
-    <hyperlink ref="E85" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
-    <hyperlink ref="E84" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
-    <hyperlink ref="E83" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
-    <hyperlink ref="E82" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
-    <hyperlink ref="E81" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
-    <hyperlink ref="E80" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
-    <hyperlink ref="E79" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
-    <hyperlink ref="E78" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
-    <hyperlink ref="E77" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
-    <hyperlink ref="E76" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
-    <hyperlink ref="E75" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
-    <hyperlink ref="E74" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
-    <hyperlink ref="E73" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
-    <hyperlink ref="E72" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
-    <hyperlink ref="E71" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
-    <hyperlink ref="E70" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
-    <hyperlink ref="E69" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
-    <hyperlink ref="E68" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
-    <hyperlink ref="E67" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
-    <hyperlink ref="E66" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
-    <hyperlink ref="E65" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
-    <hyperlink ref="E64" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
-    <hyperlink ref="E63" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
-    <hyperlink ref="E62" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
-    <hyperlink ref="E61" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
-    <hyperlink ref="E60" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
-    <hyperlink ref="E59" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
-    <hyperlink ref="E58" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
-    <hyperlink ref="E57" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
-    <hyperlink ref="E56" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
-    <hyperlink ref="E55" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
-    <hyperlink ref="E54" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
-    <hyperlink ref="E53" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
-    <hyperlink ref="E52" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
-    <hyperlink ref="E51" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
-    <hyperlink ref="E50" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
-    <hyperlink ref="E49" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
-    <hyperlink ref="E48" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
-    <hyperlink ref="E47" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
-    <hyperlink ref="E46" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
-    <hyperlink ref="E45" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
-    <hyperlink ref="E44" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
-    <hyperlink ref="E43" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
-    <hyperlink ref="E42" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
-    <hyperlink ref="E41" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
-    <hyperlink ref="E40" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
-    <hyperlink ref="E39" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
-    <hyperlink ref="E38" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
-    <hyperlink ref="E37" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
-    <hyperlink ref="E36" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
-    <hyperlink ref="E35" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
-    <hyperlink ref="E34" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
-    <hyperlink ref="E33" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
-    <hyperlink ref="E32" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
-    <hyperlink ref="E31" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
-    <hyperlink ref="E30" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
-    <hyperlink ref="E29" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
-    <hyperlink ref="E28" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
-    <hyperlink ref="E27" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
-    <hyperlink ref="E26" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
-    <hyperlink ref="E25" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
-    <hyperlink ref="E24" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
-    <hyperlink ref="E23" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
-    <hyperlink ref="E22" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
-    <hyperlink ref="E21" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
-    <hyperlink ref="E20" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
-    <hyperlink ref="E19" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
-    <hyperlink ref="E18" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
-    <hyperlink ref="E17" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
-    <hyperlink ref="E16" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
-    <hyperlink ref="E15" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
-    <hyperlink ref="E14" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
-    <hyperlink ref="E13" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
-    <hyperlink ref="E12" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
-    <hyperlink ref="E11" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
-    <hyperlink ref="E10" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
-    <hyperlink ref="E9" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
-    <hyperlink ref="E8" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
-    <hyperlink ref="E7" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
-    <hyperlink ref="E6" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
-    <hyperlink ref="E5" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
+    <hyperlink ref="E105" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
+    <hyperlink ref="E104" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
+    <hyperlink ref="E103" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
+    <hyperlink ref="E102" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
+    <hyperlink ref="E101" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
+    <hyperlink ref="E100" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
+    <hyperlink ref="E99" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
+    <hyperlink ref="E98" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
+    <hyperlink ref="E97" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
+    <hyperlink ref="E96" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
+    <hyperlink ref="E95" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
+    <hyperlink ref="E94" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
+    <hyperlink ref="E93" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
+    <hyperlink ref="E92" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
+    <hyperlink ref="E91" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
+    <hyperlink ref="E90" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
+    <hyperlink ref="E89" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
+    <hyperlink ref="E88" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
+    <hyperlink ref="E87" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
+    <hyperlink ref="E86" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
+    <hyperlink ref="E85" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
+    <hyperlink ref="E84" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
+    <hyperlink ref="E83" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
+    <hyperlink ref="E82" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
+    <hyperlink ref="E81" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
+    <hyperlink ref="E80" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
+    <hyperlink ref="E79" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
+    <hyperlink ref="E78" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
+    <hyperlink ref="E77" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
+    <hyperlink ref="E76" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
+    <hyperlink ref="E75" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
+    <hyperlink ref="E74" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
+    <hyperlink ref="E73" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
+    <hyperlink ref="E72" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
+    <hyperlink ref="E71" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
+    <hyperlink ref="E70" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
+    <hyperlink ref="E69" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
+    <hyperlink ref="E68" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
+    <hyperlink ref="E67" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
+    <hyperlink ref="E66" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
+    <hyperlink ref="E65" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
+    <hyperlink ref="E64" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
+    <hyperlink ref="E63" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
+    <hyperlink ref="E62" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
+    <hyperlink ref="E61" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
+    <hyperlink ref="E60" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
+    <hyperlink ref="E59" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
+    <hyperlink ref="E58" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
+    <hyperlink ref="E57" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
+    <hyperlink ref="E56" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
+    <hyperlink ref="E55" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
+    <hyperlink ref="E54" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
+    <hyperlink ref="E53" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
+    <hyperlink ref="E52" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
+    <hyperlink ref="E51" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
+    <hyperlink ref="E50" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
+    <hyperlink ref="E49" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
+    <hyperlink ref="E48" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
+    <hyperlink ref="E47" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
+    <hyperlink ref="E46" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
+    <hyperlink ref="E45" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
+    <hyperlink ref="E44" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
+    <hyperlink ref="E43" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
+    <hyperlink ref="E42" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
+    <hyperlink ref="E41" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
+    <hyperlink ref="E40" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
+    <hyperlink ref="E39" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
+    <hyperlink ref="E38" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
+    <hyperlink ref="E37" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
+    <hyperlink ref="E36" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
+    <hyperlink ref="E35" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
+    <hyperlink ref="E34" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
+    <hyperlink ref="E33" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
+    <hyperlink ref="E32" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
+    <hyperlink ref="E31" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
+    <hyperlink ref="E30" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
+    <hyperlink ref="E29" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
+    <hyperlink ref="E28" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
+    <hyperlink ref="E27" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
+    <hyperlink ref="E26" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
+    <hyperlink ref="E25" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
+    <hyperlink ref="E24" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
+    <hyperlink ref="E23" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
+    <hyperlink ref="E22" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
+    <hyperlink ref="E21" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
+    <hyperlink ref="E20" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
+    <hyperlink ref="E19" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
+    <hyperlink ref="E18" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
+    <hyperlink ref="E17" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
+    <hyperlink ref="E16" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
+    <hyperlink ref="E15" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
+    <hyperlink ref="E14" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
+    <hyperlink ref="E13" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
+    <hyperlink ref="E12" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
+    <hyperlink ref="E11" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
+    <hyperlink ref="E10" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
+    <hyperlink ref="E9" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
+    <hyperlink ref="E8" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
+    <hyperlink ref="E7" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
+    <hyperlink ref="E6" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
     <hyperlink ref="D3" r:id="rId101" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=0&amp;cop_open_problem=N" xr:uid="{E854B2A3-9685-E74F-AB16-6CF9F5CE9F32}"/>
     <hyperlink ref="D4" r:id="rId102" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=1&amp;cop_open_problem=N" xr:uid="{C68AE3C4-09CB-E049-80A0-9DBBBD24250A}"/>
     <hyperlink ref="D5" r:id="rId103" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=2&amp;cop_open_problem=N" xr:uid="{17D50F20-1DBD-9949-997B-572CDAE91262}"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkim/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96791ED3-0F28-F64A-B0BA-30F83D0423DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AD021-80F1-094B-993B-3D573993BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -243,15 +243,15 @@
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LG MOOC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>프로그래머스</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Lv. 2</t>
@@ -558,19 +558,19 @@
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>난이도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>왐료 여부</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Template</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -580,18 +580,10 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;dd\ \(aaa\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -648,17 +640,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -670,65 +657,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1060,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1115,8 +1095,11 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13">
-        <v>45376</v>
+      <c r="A3" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -1124,21 +1107,38 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45377</v>
+        <v>45384</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -1146,13 +1146,16 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>45378</v>
-      </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1160,19 +1163,19 @@
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1180,19 +1183,16 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>45380</v>
-      </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -1200,19 +1200,19 @@
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12">
-        <v>45381</v>
+      <c r="A9" s="1">
+        <v>45386</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -1220,17 +1220,16 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12"/>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -1238,19 +1237,19 @@
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11">
-        <v>45382</v>
+      <c r="A11" s="1">
+        <v>45387</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
@@ -1258,17 +1257,16 @@
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11"/>
       <c r="B12" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -1276,19 +1274,19 @@
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>45383</v>
+      <c r="A13" s="12">
+        <v>45388</v>
       </c>
       <c r="B13" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -1296,19 +1294,19 @@
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>45384</v>
+      <c r="A14" s="11">
+        <v>45389</v>
       </c>
       <c r="B14" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
@@ -1316,19 +1314,19 @@
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
@@ -1336,19 +1334,16 @@
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>45386</v>
-      </c>
       <c r="B16" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1356,19 +1351,19 @@
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B17" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
@@ -1376,19 +1371,16 @@
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12">
-        <v>45388</v>
-      </c>
       <c r="B18" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
@@ -1396,17 +1388,19 @@
       <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9">
+        <v>45392</v>
+      </c>
       <c r="B19" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
@@ -1414,19 +1408,19 @@
       <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11">
-        <v>45389</v>
+      <c r="A20" s="1">
+        <v>45393</v>
       </c>
       <c r="B20" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>36</v>
@@ -1434,17 +1428,16 @@
       <c r="D20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
       <c r="B21" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>38</v>
@@ -1452,19 +1445,19 @@
       <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>45390</v>
+        <v>45394</v>
       </c>
       <c r="B22" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
@@ -1472,19 +1465,16 @@
       <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>45391</v>
-      </c>
       <c r="B23" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
@@ -1492,19 +1482,19 @@
       <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>45392</v>
+      <c r="A24" s="12">
+        <v>45395</v>
       </c>
       <c r="B24" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>44</v>
@@ -1512,19 +1502,19 @@
       <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>45393</v>
+      <c r="A25" s="11">
+        <v>45396</v>
       </c>
       <c r="B25" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>46</v>
@@ -1532,19 +1522,19 @@
       <c r="D25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B26" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -1552,19 +1542,16 @@
       <c r="D26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
-        <v>45395</v>
-      </c>
       <c r="B27" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>50</v>
@@ -1572,17 +1559,19 @@
       <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12"/>
+      <c r="A28" s="1">
+        <v>45398</v>
+      </c>
       <c r="B28" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>52</v>
@@ -1590,19 +1579,16 @@
       <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11">
-        <v>45396</v>
-      </c>
       <c r="B29" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>54</v>
@@ -1610,17 +1596,19 @@
       <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
+      <c r="A30" s="1">
+        <v>45399</v>
+      </c>
       <c r="B30" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>56</v>
@@ -1628,19 +1616,16 @@
       <c r="D30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="9" t="s">
+      <c r="E30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>45397</v>
-      </c>
       <c r="B31" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -1648,19 +1633,19 @@
       <c r="D31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="B32" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>60</v>
@@ -1668,19 +1653,16 @@
       <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>45399</v>
-      </c>
       <c r="B33" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>62</v>
@@ -1688,19 +1670,19 @@
       <c r="D33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B34" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>64</v>
@@ -1708,19 +1690,16 @@
       <c r="D34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>45401</v>
-      </c>
       <c r="B35" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>66</v>
@@ -1728,10 +1707,10 @@
       <c r="D35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="E35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1740,784 +1719,743 @@
         <v>45402</v>
       </c>
       <c r="B36" s="3">
-        <v>31</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11">
+        <v>45403</v>
+      </c>
       <c r="B37" s="3">
-        <v>32</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11">
-        <v>45403</v>
+      <c r="A38" s="1">
+        <v>45404</v>
       </c>
       <c r="B38" s="3">
-        <v>33</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
+      <c r="A39" s="1">
+        <v>45405</v>
+      </c>
       <c r="B39" s="3">
-        <v>34</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B40" s="3">
-        <v>35</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="B41" s="3">
-        <v>36</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B42" s="3">
-        <v>37</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>45407</v>
-      </c>
       <c r="B43" s="3">
-        <v>38</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="3">
-        <v>39</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="3">
-        <v>40</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F45" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="3">
-        <v>41</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="3">
-        <v>42</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="3">
-        <v>43</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F48" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="3">
-        <v>44</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="3">
-        <v>45</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="3">
-        <v>46</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="3">
-        <v>47</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="3">
-        <v>48</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="3">
-        <v>49</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="3">
-        <v>51</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="3">
-        <v>52</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="3">
-        <v>53</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="3">
-        <v>54</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="3">
-        <v>55</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="3">
-        <v>56</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="3">
-        <v>57</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="E62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="3">
-        <v>58</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="E64" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="65" spans="5:6">
-      <c r="E65" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="5:6">
-      <c r="E66" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="67" spans="5:6">
-      <c r="E67" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="5:6">
-      <c r="E68" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="5:6">
-      <c r="E69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="5:6">
-      <c r="E70" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="71" spans="5:6">
-      <c r="E71" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="5:6">
-      <c r="E72" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="9" t="s">
+      <c r="E72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="5:6">
-      <c r="E73" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="5:6">
-      <c r="E74" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F74" s="9" t="s">
+      <c r="E74" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="5:6">
-      <c r="E75" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="9" t="s">
+      <c r="E75" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="5:6">
-      <c r="E76" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="77" spans="5:6">
-      <c r="E77" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="9" t="s">
+      <c r="E77" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="5:6">
-      <c r="E78" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F78" s="9" t="s">
+      <c r="E78" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="5:6">
-      <c r="E79" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F79" s="9" t="s">
+      <c r="E79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="5:6">
-      <c r="E80" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="9" t="s">
+      <c r="E80" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="5:6">
-      <c r="E81" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" spans="5:6">
-      <c r="E82" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="5:6">
-      <c r="E83" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F83" s="9" t="s">
+      <c r="E83" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="84" spans="5:6">
-      <c r="E84" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="5:6">
-      <c r="E85" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="86" spans="5:6">
-      <c r="E86" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="5:6">
-      <c r="E87" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F87" s="9" t="s">
+      <c r="E87" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="5:6">
-      <c r="E88" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="89" spans="5:6">
-      <c r="E89" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89" s="9" t="s">
+      <c r="E89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="90" spans="5:6">
-      <c r="E90" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" s="9" t="s">
+      <c r="E90" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="91" spans="5:6">
-      <c r="E91" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F91" s="9" t="s">
+      <c r="E91" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="92" spans="5:6">
-      <c r="E92" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="93" spans="5:6">
-      <c r="E93" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F93" s="9" t="s">
+      <c r="E93" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="5:6">
-      <c r="E94" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" s="9" t="s">
+      <c r="E94" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="95" spans="5:6">
-      <c r="E95" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F95" s="9" t="s">
+      <c r="E95" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="5:6">
-      <c r="E96" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F96" s="9" t="s">
+      <c r="E96" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="97" spans="5:6">
-      <c r="E97" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="98" spans="5:6">
-      <c r="E98" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="99" spans="5:6">
-      <c r="E99" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="100" spans="5:6">
-      <c r="E100" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="5:6">
-      <c r="E101" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="102" spans="5:6">
-      <c r="E102" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F102" s="8" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E105" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
-    <hyperlink ref="E104" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
-    <hyperlink ref="E103" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
-    <hyperlink ref="E102" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
-    <hyperlink ref="E101" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
-    <hyperlink ref="E100" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
-    <hyperlink ref="E99" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
-    <hyperlink ref="E98" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
-    <hyperlink ref="E97" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
-    <hyperlink ref="E96" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
-    <hyperlink ref="E95" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
-    <hyperlink ref="E94" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
-    <hyperlink ref="E93" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
-    <hyperlink ref="E92" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
-    <hyperlink ref="E91" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
-    <hyperlink ref="E90" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
-    <hyperlink ref="E89" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
-    <hyperlink ref="E88" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
-    <hyperlink ref="E87" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
-    <hyperlink ref="E86" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
-    <hyperlink ref="E85" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
-    <hyperlink ref="E84" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
-    <hyperlink ref="E83" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
-    <hyperlink ref="E82" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
-    <hyperlink ref="E81" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
-    <hyperlink ref="E80" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
-    <hyperlink ref="E79" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
-    <hyperlink ref="E78" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
-    <hyperlink ref="E77" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
-    <hyperlink ref="E76" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
-    <hyperlink ref="E75" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
-    <hyperlink ref="E74" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
-    <hyperlink ref="E73" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
-    <hyperlink ref="E72" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
-    <hyperlink ref="E71" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
-    <hyperlink ref="E70" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
-    <hyperlink ref="E69" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
-    <hyperlink ref="E68" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
-    <hyperlink ref="E67" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
-    <hyperlink ref="E66" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
-    <hyperlink ref="E65" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
-    <hyperlink ref="E64" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
-    <hyperlink ref="E63" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
-    <hyperlink ref="E62" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
-    <hyperlink ref="E61" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
-    <hyperlink ref="E60" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
-    <hyperlink ref="E59" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
-    <hyperlink ref="E58" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
-    <hyperlink ref="E57" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
-    <hyperlink ref="E56" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
-    <hyperlink ref="E55" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
-    <hyperlink ref="E54" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
-    <hyperlink ref="E53" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
-    <hyperlink ref="E52" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
-    <hyperlink ref="E51" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
-    <hyperlink ref="E50" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
-    <hyperlink ref="E49" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
-    <hyperlink ref="E48" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
-    <hyperlink ref="E47" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
-    <hyperlink ref="E46" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
-    <hyperlink ref="E45" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
-    <hyperlink ref="E44" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
-    <hyperlink ref="E43" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
-    <hyperlink ref="E42" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
-    <hyperlink ref="E41" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
-    <hyperlink ref="E40" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
-    <hyperlink ref="E39" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
-    <hyperlink ref="E38" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
-    <hyperlink ref="E37" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
-    <hyperlink ref="E36" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
-    <hyperlink ref="E35" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
-    <hyperlink ref="E34" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
-    <hyperlink ref="E33" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
-    <hyperlink ref="E32" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
-    <hyperlink ref="E31" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
-    <hyperlink ref="E30" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
-    <hyperlink ref="E29" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
-    <hyperlink ref="E28" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
-    <hyperlink ref="E27" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
-    <hyperlink ref="E26" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
-    <hyperlink ref="E25" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
-    <hyperlink ref="E24" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
-    <hyperlink ref="E23" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
-    <hyperlink ref="E22" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
-    <hyperlink ref="E21" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
-    <hyperlink ref="E20" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
-    <hyperlink ref="E19" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
-    <hyperlink ref="E18" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
-    <hyperlink ref="E17" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
-    <hyperlink ref="E16" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
-    <hyperlink ref="E15" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
-    <hyperlink ref="E14" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
-    <hyperlink ref="E13" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
-    <hyperlink ref="E12" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
-    <hyperlink ref="E11" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
-    <hyperlink ref="E10" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
-    <hyperlink ref="E9" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
-    <hyperlink ref="E8" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
-    <hyperlink ref="E7" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
-    <hyperlink ref="E6" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
+    <hyperlink ref="E102" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
+    <hyperlink ref="E101" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
+    <hyperlink ref="E100" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
+    <hyperlink ref="E99" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
+    <hyperlink ref="E98" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
+    <hyperlink ref="E97" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
+    <hyperlink ref="E96" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
+    <hyperlink ref="E95" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
+    <hyperlink ref="E94" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
+    <hyperlink ref="E93" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
+    <hyperlink ref="E92" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
+    <hyperlink ref="E91" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
+    <hyperlink ref="E90" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
+    <hyperlink ref="E89" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
+    <hyperlink ref="E88" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
+    <hyperlink ref="E87" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
+    <hyperlink ref="E86" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
+    <hyperlink ref="E85" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
+    <hyperlink ref="E84" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
+    <hyperlink ref="E83" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
+    <hyperlink ref="E82" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
+    <hyperlink ref="E81" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
+    <hyperlink ref="E80" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
+    <hyperlink ref="E79" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
+    <hyperlink ref="E78" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
+    <hyperlink ref="E77" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
+    <hyperlink ref="E76" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
+    <hyperlink ref="E75" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
+    <hyperlink ref="E74" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
+    <hyperlink ref="E73" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
+    <hyperlink ref="E72" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
+    <hyperlink ref="E71" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
+    <hyperlink ref="E70" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
+    <hyperlink ref="E69" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
+    <hyperlink ref="E68" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
+    <hyperlink ref="E67" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
+    <hyperlink ref="E66" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
+    <hyperlink ref="E65" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
+    <hyperlink ref="E64" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
+    <hyperlink ref="E63" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
+    <hyperlink ref="E62" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
+    <hyperlink ref="E61" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
+    <hyperlink ref="E60" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
+    <hyperlink ref="E59" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
+    <hyperlink ref="E58" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
+    <hyperlink ref="E57" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
+    <hyperlink ref="E56" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
+    <hyperlink ref="E55" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
+    <hyperlink ref="E54" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
+    <hyperlink ref="E53" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
+    <hyperlink ref="E52" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
+    <hyperlink ref="E51" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
+    <hyperlink ref="E50" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
+    <hyperlink ref="E49" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
+    <hyperlink ref="E48" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
+    <hyperlink ref="E47" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
+    <hyperlink ref="E46" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
+    <hyperlink ref="E45" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
+    <hyperlink ref="E44" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
+    <hyperlink ref="E43" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
+    <hyperlink ref="E42" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
+    <hyperlink ref="E41" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
+    <hyperlink ref="E40" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
+    <hyperlink ref="E39" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
+    <hyperlink ref="E38" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
+    <hyperlink ref="E37" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
+    <hyperlink ref="E36" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
+    <hyperlink ref="E35" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
+    <hyperlink ref="E34" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
+    <hyperlink ref="E33" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
+    <hyperlink ref="E32" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
+    <hyperlink ref="E31" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
+    <hyperlink ref="E30" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
+    <hyperlink ref="E29" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
+    <hyperlink ref="E28" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
+    <hyperlink ref="E27" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
+    <hyperlink ref="E26" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
+    <hyperlink ref="E25" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
+    <hyperlink ref="E24" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
+    <hyperlink ref="E23" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
+    <hyperlink ref="E22" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
+    <hyperlink ref="E21" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
+    <hyperlink ref="E20" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
+    <hyperlink ref="E19" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
+    <hyperlink ref="E18" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
+    <hyperlink ref="E17" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
+    <hyperlink ref="E16" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
+    <hyperlink ref="E15" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
+    <hyperlink ref="E14" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
+    <hyperlink ref="E13" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
+    <hyperlink ref="E12" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
+    <hyperlink ref="E11" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
+    <hyperlink ref="E10" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
+    <hyperlink ref="E9" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
+    <hyperlink ref="E8" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
+    <hyperlink ref="E7" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
+    <hyperlink ref="E6" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
+    <hyperlink ref="E5" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
+    <hyperlink ref="E4" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
+    <hyperlink ref="E3" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
     <hyperlink ref="D3" r:id="rId101" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=0&amp;cop_open_problem=N" xr:uid="{E854B2A3-9685-E74F-AB16-6CF9F5CE9F32}"/>
     <hyperlink ref="D4" r:id="rId102" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=1&amp;cop_open_problem=N" xr:uid="{C68AE3C4-09CB-E049-80A0-9DBBBD24250A}"/>
     <hyperlink ref="D5" r:id="rId103" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=2&amp;cop_open_problem=N" xr:uid="{17D50F20-1DBD-9949-997B-572CDAE91262}"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkim/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AD021-80F1-094B-993B-3D573993BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F5593-0D9F-BA4E-8F7F-BB2845460965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkim/coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F5593-0D9F-BA4E-8F7F-BB2845460965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A00E54D-728A-4509-B2C8-B2BBED5B6D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="216">
   <si>
     <t>문제번호  </t>
   </si>
@@ -243,15 +244,15 @@
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LG MOOC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로그래머스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Lv. 2</t>
@@ -558,19 +559,167 @@
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>난이도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>왐료 여부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Template</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>제목</t>
+  </si>
+  <si>
+    <t>난이도</t>
+  </si>
+  <si>
+    <t>완료한 사람</t>
+  </si>
+  <si>
+    <t>정답률</t>
+  </si>
+  <si>
+    <t>다음 큰 숫자</t>
+  </si>
+  <si>
+    <t>26,939명</t>
+  </si>
+  <si>
+    <t>올바른 괄호</t>
+  </si>
+  <si>
+    <t>45,030명</t>
+  </si>
+  <si>
+    <t>가장 큰 정사각형 찾기</t>
+  </si>
+  <si>
+    <t>9,641명</t>
+  </si>
+  <si>
+    <t>3 x n 타일링</t>
+  </si>
+  <si>
+    <t>3,883명</t>
+  </si>
+  <si>
+    <t>2 x n 타일링</t>
+  </si>
+  <si>
+    <t>12,985명</t>
+  </si>
+  <si>
+    <t>124 나라의 숫자</t>
+  </si>
+  <si>
+    <t>24,992명</t>
+  </si>
+  <si>
+    <t>게임 맵 최단거리</t>
+  </si>
+  <si>
+    <t>23,891명</t>
+  </si>
+  <si>
+    <t>제이그</t>
+  </si>
+  <si>
+    <t>순위</t>
+  </si>
+  <si>
+    <t>3,340위</t>
+  </si>
+  <si>
+    <t>점수</t>
+  </si>
+  <si>
+    <t>1,631점</t>
+  </si>
+  <si>
+    <t>해결한 문제</t>
+  </si>
+  <si>
+    <t>127개</t>
+  </si>
+  <si>
+    <r>
+      <t>프로그래머스 AI - 문제 해결 분석 리포트</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Beta</t>
+    </r>
+  </si>
+  <si>
+    <t>마지막 업데이트 2024-04-08</t>
+  </si>
+  <si>
+    <t>내 실력 향상을 위한 추천 코스</t>
+  </si>
+  <si>
+    <t>쉬운 SQL 프로그래머스 문제 함께풀기</t>
+  </si>
+  <si>
+    <t>초급MySQL</t>
+  </si>
+  <si>
+    <t>자바스크립트와 웹 프론트엔드</t>
+  </si>
+  <si>
+    <t>중급JavaScript</t>
+  </si>
+  <si>
+    <t>PCSQL : 하루 만에 SQL 초보 탈출</t>
+  </si>
+  <si>
+    <t>입문MySQL</t>
+  </si>
+  <si>
+    <t>제이그님께 추천하는 포지션</t>
+  </si>
+  <si>
+    <t>플랫폼 서비스 개발 팀원</t>
+  </si>
+  <si>
+    <r>
+      <t>히비스</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>평균 2주 이내 응답</t>
+    </r>
+  </si>
+  <si>
+    <t>신입</t>
+  </si>
+  <si>
+    <t>서울시 강동구</t>
   </si>
 </sst>
 </file>
@@ -580,18 +729,10 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;dd\ \(aaa\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -623,14 +764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF47C84C"/>
@@ -639,16 +772,101 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0078FF"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF47C84C"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF263747"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0078FF"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF98A8B9"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF44576C"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF98A8B9"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF98A8B9"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -656,54 +874,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,6 +1011,259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="강의 썸네일 이미지">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC2CC9C-FF7F-6A8C-0555-36E480D39D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8629650"/>
+          <a:ext cx="4876800" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="강의 썸네일 이미지">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EF19C5-92C9-A2E0-93DA-95E4C57A158A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9286875"/>
+          <a:ext cx="6477000" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="강의 썸네일 이미지">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{207C4100-4E0B-F296-BE4C-0178AD01ADD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9944100"/>
+          <a:ext cx="12954000" cy="8382000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="히비스 로고">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445D52FF-9B44-9DDE-C920-2936FCA1F99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11039475"/>
+          <a:ext cx="3048000" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,46 +1583,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,23 +1635,23 @@
       <c r="F2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>45383</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="32">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>91</v>
+      <c r="E3" s="31" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>71</v>
@@ -1116,17 +1659,20 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="3">
+      <c r="A4" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B4" s="32">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>90</v>
+      <c r="E4" s="31" t="s">
+        <v>191</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>71</v>
@@ -1135,36 +1681,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B5" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B5" s="32">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>89</v>
+      <c r="E5" s="31" t="s">
+        <v>189</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="3">
+      <c r="A6" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B6" s="32">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>88</v>
+      <c r="E6" s="31" t="s">
+        <v>187</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>71</v>
@@ -1172,36 +1721,39 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>45385</v>
-      </c>
-      <c r="B7" s="3">
+        <v>45387</v>
+      </c>
+      <c r="B7" s="32">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>87</v>
+      <c r="E7" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="3">
+      <c r="A8" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B8" s="33">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>86</v>
+      <c r="E8" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>71</v>
@@ -1209,36 +1761,39 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>45386</v>
-      </c>
-      <c r="B9" s="3">
+        <v>45389</v>
+      </c>
+      <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>85</v>
+      <c r="E9" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="3">
+      <c r="A10" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>84</v>
+      <c r="E10" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>71</v>
@@ -1246,25 +1801,28 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>45387</v>
-      </c>
-      <c r="B11" s="3">
+        <v>45391</v>
+      </c>
+      <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>83</v>
+      <c r="E11" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>45392</v>
+      </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1274,16 +1832,16 @@
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>82</v>
+      <c r="E12" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12">
-        <v>45388</v>
+      <c r="A13" s="1">
+        <v>45393</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
@@ -1294,16 +1852,16 @@
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>81</v>
+      <c r="E13" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11">
-        <v>45389</v>
+      <c r="A14" s="1">
+        <v>45394</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -1314,8 +1872,8 @@
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>80</v>
+      <c r="E14" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>71</v>
@@ -1323,7 +1881,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>45390</v>
+        <v>45395</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -1334,14 +1892,17 @@
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>79</v>
+      <c r="E15" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>45396</v>
+      </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -1351,8 +1912,8 @@
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>78</v>
+      <c r="E16" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>71</v>
@@ -1360,7 +1921,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>45391</v>
+        <v>45397</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
@@ -1371,14 +1932,17 @@
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>77</v>
+      <c r="E17" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>45398</v>
+      </c>
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -1389,15 +1953,15 @@
         <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9">
-        <v>45392</v>
+      <c r="A19" s="1">
+        <v>45399</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
@@ -1409,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>71</v>
@@ -1417,7 +1981,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>45393</v>
+        <v>45400</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
@@ -1429,13 +1993,16 @@
         <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>45401</v>
+      </c>
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -1446,7 +2013,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>71</v>
@@ -1454,7 +2021,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>45394</v>
+        <v>45402</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -1466,13 +2033,16 @@
         <v>41</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>45403</v>
+      </c>
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -1483,15 +2053,15 @@
         <v>43</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12">
-        <v>45395</v>
+      <c r="A24" s="1">
+        <v>45404</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -1503,15 +2073,15 @@
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11">
-        <v>45396</v>
+      <c r="A25" s="1">
+        <v>45405</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
@@ -1523,7 +2093,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>71</v>
@@ -1531,7 +2101,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>45397</v>
+        <v>45406</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
@@ -1543,13 +2113,16 @@
         <v>49</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>45407</v>
+      </c>
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -1560,7 +2133,7 @@
         <v>51</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>71</v>
@@ -1568,7 +2141,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>45398</v>
+        <v>45408</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
@@ -1580,13 +2153,16 @@
         <v>53</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>45409</v>
+      </c>
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -1597,7 +2173,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>71</v>
@@ -1605,7 +2181,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>45399</v>
+        <v>45410</v>
       </c>
       <c r="B30" s="3">
         <v>28</v>
@@ -1617,13 +2193,16 @@
         <v>57</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>45411</v>
+      </c>
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -1634,7 +2213,7 @@
         <v>59</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>71</v>
@@ -1642,7 +2221,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>45400</v>
+        <v>45412</v>
       </c>
       <c r="B32" s="3">
         <v>30</v>
@@ -1654,13 +2233,16 @@
         <v>61</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>45413</v>
+      </c>
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -1671,7 +2253,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>71</v>
@@ -1679,7 +2261,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>45401</v>
+        <v>45414</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
@@ -1691,13 +2273,16 @@
         <v>65</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>45415</v>
+      </c>
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -1708,35 +2293,35 @@
         <v>67</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12">
-        <v>45402</v>
+      <c r="A36" s="1">
+        <v>45416</v>
       </c>
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11">
-        <v>45403</v>
+      <c r="A37" s="1">
+        <v>45417</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>71</v>
@@ -1744,13 +2329,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>45404</v>
+        <v>45418</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>71</v>
@@ -1758,13 +2343,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>45405</v>
+        <v>45419</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>71</v>
@@ -1772,13 +2357,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>45406</v>
+        <v>45420</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>71</v>
@@ -1786,13 +2371,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>45407</v>
+        <v>45421</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>71</v>
@@ -1800,24 +2385,27 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>45408</v>
+        <v>45422</v>
       </c>
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>45423</v>
+      </c>
       <c r="B43" s="3">
         <v>41</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>71</v>
@@ -1828,7 +2416,7 @@
         <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>71</v>
@@ -1839,7 +2427,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>71</v>
@@ -1850,7 +2438,7 @@
         <v>44</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>71</v>
@@ -1861,7 +2449,7 @@
         <v>45</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>71</v>
@@ -1872,7 +2460,7 @@
         <v>46</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>71</v>
@@ -1883,7 +2471,7 @@
         <v>47</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>71</v>
@@ -1894,7 +2482,7 @@
         <v>48</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>71</v>
@@ -1905,7 +2493,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>71</v>
@@ -1916,7 +2504,7 @@
         <v>50</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>71</v>
@@ -1927,7 +2515,7 @@
         <v>51</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>71</v>
@@ -1938,7 +2526,7 @@
         <v>52</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>71</v>
@@ -1949,7 +2537,7 @@
         <v>53</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>71</v>
@@ -1960,7 +2548,7 @@
         <v>54</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>71</v>
@@ -1971,7 +2559,7 @@
         <v>55</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>71</v>
@@ -1982,7 +2570,7 @@
         <v>56</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>71</v>
@@ -1993,7 +2581,7 @@
         <v>57</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>71</v>
@@ -2004,7 +2592,7 @@
         <v>58</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>71</v>
@@ -2012,7 +2600,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="E61" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>71</v>
@@ -2020,7 +2608,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="E62" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>71</v>
@@ -2028,7 +2616,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="E63" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>71</v>
@@ -2036,7 +2624,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="E64" s="7" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>71</v>
@@ -2044,7 +2632,7 @@
     </row>
     <row r="65" spans="5:6">
       <c r="E65" s="7" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>71</v>
@@ -2052,7 +2640,7 @@
     </row>
     <row r="66" spans="5:6">
       <c r="E66" s="7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>71</v>
@@ -2060,7 +2648,7 @@
     </row>
     <row r="67" spans="5:6">
       <c r="E67" s="7" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>71</v>
@@ -2068,7 +2656,7 @@
     </row>
     <row r="68" spans="5:6">
       <c r="E68" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>71</v>
@@ -2076,7 +2664,7 @@
     </row>
     <row r="69" spans="5:6">
       <c r="E69" s="7" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>71</v>
@@ -2084,7 +2672,7 @@
     </row>
     <row r="70" spans="5:6">
       <c r="E70" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>71</v>
@@ -2092,7 +2680,7 @@
     </row>
     <row r="71" spans="5:6">
       <c r="E71" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>71</v>
@@ -2100,7 +2688,7 @@
     </row>
     <row r="72" spans="5:6">
       <c r="E72" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>71</v>
@@ -2108,7 +2696,7 @@
     </row>
     <row r="73" spans="5:6">
       <c r="E73" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>71</v>
@@ -2116,7 +2704,7 @@
     </row>
     <row r="74" spans="5:6">
       <c r="E74" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>71</v>
@@ -2124,7 +2712,7 @@
     </row>
     <row r="75" spans="5:6">
       <c r="E75" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>71</v>
@@ -2132,7 +2720,7 @@
     </row>
     <row r="76" spans="5:6">
       <c r="E76" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>71</v>
@@ -2140,7 +2728,7 @@
     </row>
     <row r="77" spans="5:6">
       <c r="E77" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>71</v>
@@ -2148,7 +2736,7 @@
     </row>
     <row r="78" spans="5:6">
       <c r="E78" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>71</v>
@@ -2156,7 +2744,7 @@
     </row>
     <row r="79" spans="5:6">
       <c r="E79" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>71</v>
@@ -2164,7 +2752,7 @@
     </row>
     <row r="80" spans="5:6">
       <c r="E80" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>71</v>
@@ -2172,7 +2760,7 @@
     </row>
     <row r="81" spans="5:6">
       <c r="E81" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>71</v>
@@ -2180,7 +2768,7 @@
     </row>
     <row r="82" spans="5:6">
       <c r="E82" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>71</v>
@@ -2188,7 +2776,7 @@
     </row>
     <row r="83" spans="5:6">
       <c r="E83" s="7" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>71</v>
@@ -2196,7 +2784,7 @@
     </row>
     <row r="84" spans="5:6">
       <c r="E84" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>71</v>
@@ -2204,7 +2792,7 @@
     </row>
     <row r="85" spans="5:6">
       <c r="E85" s="7" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>71</v>
@@ -2212,7 +2800,7 @@
     </row>
     <row r="86" spans="5:6">
       <c r="E86" s="7" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>71</v>
@@ -2220,7 +2808,7 @@
     </row>
     <row r="87" spans="5:6">
       <c r="E87" s="7" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>71</v>
@@ -2228,7 +2816,7 @@
     </row>
     <row r="88" spans="5:6">
       <c r="E88" s="7" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>71</v>
@@ -2236,7 +2824,7 @@
     </row>
     <row r="89" spans="5:6">
       <c r="E89" s="7" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>71</v>
@@ -2244,7 +2832,7 @@
     </row>
     <row r="90" spans="5:6">
       <c r="E90" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>71</v>
@@ -2252,7 +2840,7 @@
     </row>
     <row r="91" spans="5:6">
       <c r="E91" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>71</v>
@@ -2260,7 +2848,7 @@
     </row>
     <row r="92" spans="5:6">
       <c r="E92" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>71</v>
@@ -2268,7 +2856,7 @@
     </row>
     <row r="93" spans="5:6">
       <c r="E93" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>71</v>
@@ -2276,7 +2864,7 @@
     </row>
     <row r="94" spans="5:6">
       <c r="E94" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>71</v>
@@ -2284,7 +2872,7 @@
     </row>
     <row r="95" spans="5:6">
       <c r="E95" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>71</v>
@@ -2292,7 +2880,7 @@
     </row>
     <row r="96" spans="5:6">
       <c r="E96" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>71</v>
@@ -2300,7 +2888,7 @@
     </row>
     <row r="97" spans="5:6">
       <c r="E97" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>71</v>
@@ -2308,7 +2896,7 @@
     </row>
     <row r="98" spans="5:6">
       <c r="E98" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>71</v>
@@ -2316,7 +2904,7 @@
     </row>
     <row r="99" spans="5:6">
       <c r="E99" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>71</v>
@@ -2324,7 +2912,7 @@
     </row>
     <row r="100" spans="5:6">
       <c r="E100" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>71</v>
@@ -2332,7 +2920,7 @@
     </row>
     <row r="101" spans="5:6">
       <c r="E101" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>71</v>
@@ -2340,9 +2928,65 @@
     </row>
     <row r="102" spans="5:6">
       <c r="E102" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2354,108 +2998,108 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E102" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
-    <hyperlink ref="E101" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
-    <hyperlink ref="E100" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
-    <hyperlink ref="E99" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
-    <hyperlink ref="E98" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
-    <hyperlink ref="E97" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
-    <hyperlink ref="E96" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
-    <hyperlink ref="E95" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
-    <hyperlink ref="E94" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
-    <hyperlink ref="E93" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
-    <hyperlink ref="E92" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
-    <hyperlink ref="E91" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
-    <hyperlink ref="E90" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
-    <hyperlink ref="E89" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
-    <hyperlink ref="E88" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
-    <hyperlink ref="E87" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
-    <hyperlink ref="E86" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
-    <hyperlink ref="E85" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
-    <hyperlink ref="E84" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
-    <hyperlink ref="E83" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
-    <hyperlink ref="E82" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
-    <hyperlink ref="E81" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
-    <hyperlink ref="E80" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
-    <hyperlink ref="E79" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
-    <hyperlink ref="E78" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
-    <hyperlink ref="E77" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
-    <hyperlink ref="E76" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
-    <hyperlink ref="E75" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
-    <hyperlink ref="E74" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
-    <hyperlink ref="E73" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
-    <hyperlink ref="E72" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
-    <hyperlink ref="E71" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
-    <hyperlink ref="E70" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
-    <hyperlink ref="E69" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
-    <hyperlink ref="E68" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
-    <hyperlink ref="E67" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
-    <hyperlink ref="E66" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
-    <hyperlink ref="E65" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
-    <hyperlink ref="E64" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
-    <hyperlink ref="E63" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
-    <hyperlink ref="E62" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
-    <hyperlink ref="E61" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
-    <hyperlink ref="E60" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
-    <hyperlink ref="E59" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
-    <hyperlink ref="E58" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
-    <hyperlink ref="E57" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
-    <hyperlink ref="E56" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
-    <hyperlink ref="E55" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
-    <hyperlink ref="E54" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
-    <hyperlink ref="E53" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
-    <hyperlink ref="E52" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
-    <hyperlink ref="E51" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
-    <hyperlink ref="E50" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
-    <hyperlink ref="E49" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
-    <hyperlink ref="E48" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
-    <hyperlink ref="E47" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
-    <hyperlink ref="E46" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
-    <hyperlink ref="E45" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
-    <hyperlink ref="E44" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
-    <hyperlink ref="E43" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
-    <hyperlink ref="E42" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
-    <hyperlink ref="E41" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
-    <hyperlink ref="E40" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
-    <hyperlink ref="E39" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
-    <hyperlink ref="E38" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
-    <hyperlink ref="E37" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
-    <hyperlink ref="E36" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
-    <hyperlink ref="E35" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
-    <hyperlink ref="E34" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
-    <hyperlink ref="E33" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
-    <hyperlink ref="E32" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
-    <hyperlink ref="E31" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
-    <hyperlink ref="E30" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
-    <hyperlink ref="E29" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
-    <hyperlink ref="E28" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
-    <hyperlink ref="E27" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
-    <hyperlink ref="E26" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
-    <hyperlink ref="E25" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
-    <hyperlink ref="E24" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
-    <hyperlink ref="E23" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
-    <hyperlink ref="E22" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
-    <hyperlink ref="E21" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
-    <hyperlink ref="E20" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
-    <hyperlink ref="E19" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
-    <hyperlink ref="E18" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
-    <hyperlink ref="E17" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
-    <hyperlink ref="E16" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
-    <hyperlink ref="E15" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
-    <hyperlink ref="E14" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
-    <hyperlink ref="E13" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
-    <hyperlink ref="E12" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
-    <hyperlink ref="E11" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
-    <hyperlink ref="E10" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
-    <hyperlink ref="E9" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
-    <hyperlink ref="E8" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
-    <hyperlink ref="E7" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
-    <hyperlink ref="E6" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
-    <hyperlink ref="E5" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
-    <hyperlink ref="E4" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
-    <hyperlink ref="E3" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
+    <hyperlink ref="E109" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
+    <hyperlink ref="E108" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
+    <hyperlink ref="E107" r:id="rId3" display="https://school.programmers.co.kr/learn/courses/30/lessons/250135" xr:uid="{EFEFF770-F500-AD4E-A1DE-A7686EEA6966}"/>
+    <hyperlink ref="E106" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/30/lessons/181188" xr:uid="{93AEAF76-BF66-A248-B58C-380B30897DF2}"/>
+    <hyperlink ref="E105" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/30/lessons/181187" xr:uid="{CD6B8FCC-19F3-C542-8816-5A9710B8A80D}"/>
+    <hyperlink ref="E104" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/30/lessons/178870" xr:uid="{74DED22F-CFF7-A345-A23E-7F7FBD20F001}"/>
+    <hyperlink ref="E103" r:id="rId7" display="https://school.programmers.co.kr/learn/courses/30/lessons/176962" xr:uid="{A92B905E-6C0B-8941-82AA-97FC9CE1C63C}"/>
+    <hyperlink ref="E102" r:id="rId8" display="https://school.programmers.co.kr/learn/courses/30/lessons/172927" xr:uid="{DFEECB62-FA31-934F-B643-7D762D0E3B08}"/>
+    <hyperlink ref="E101" r:id="rId9" display="https://school.programmers.co.kr/learn/courses/30/lessons/169199" xr:uid="{3ADD955D-6AB3-6048-8964-C7DB3283EF93}"/>
+    <hyperlink ref="E100" r:id="rId10" display="https://school.programmers.co.kr/learn/courses/30/lessons/169198" xr:uid="{30C86F15-C032-6840-8ED2-1CB052E51FE6}"/>
+    <hyperlink ref="E99" r:id="rId11" display="https://school.programmers.co.kr/learn/courses/30/lessons/160585" xr:uid="{07285C8B-F1E4-8F4D-932C-C5472B8D5D48}"/>
+    <hyperlink ref="E98" r:id="rId12" display="https://school.programmers.co.kr/learn/courses/30/lessons/159993" xr:uid="{DDCFFE9B-730E-3741-B687-57997E67E871}"/>
+    <hyperlink ref="E97" r:id="rId13" display="https://school.programmers.co.kr/learn/courses/30/lessons/155651" xr:uid="{05A7526C-1AE0-9540-8704-DDD45A1A894C}"/>
+    <hyperlink ref="E96" r:id="rId14" display="https://school.programmers.co.kr/learn/courses/30/lessons/154540" xr:uid="{9E6074C0-05C5-D442-A2A0-9A70937A9D0F}"/>
+    <hyperlink ref="E95" r:id="rId15" display="https://school.programmers.co.kr/learn/courses/30/lessons/154539" xr:uid="{8D8AAA4C-B5F9-2F4C-92C4-828888B8703F}"/>
+    <hyperlink ref="E94" r:id="rId16" display="https://school.programmers.co.kr/learn/courses/30/lessons/154538" xr:uid="{90766D85-7AC7-364E-B2F5-D4A8397C88B8}"/>
+    <hyperlink ref="E93" r:id="rId17" display="https://school.programmers.co.kr/learn/courses/30/lessons/152996" xr:uid="{374E2E74-74FB-FA4B-BD55-93B1AFB1F98A}"/>
+    <hyperlink ref="E92" r:id="rId18" display="https://school.programmers.co.kr/learn/courses/30/lessons/150369" xr:uid="{F8C9F522-4BB3-9A44-933A-4EF9F2A3E6EF}"/>
+    <hyperlink ref="E91" r:id="rId19" display="https://school.programmers.co.kr/learn/courses/30/lessons/150368" xr:uid="{35E26F53-18B5-494C-95EE-DB6E0B7C7799}"/>
+    <hyperlink ref="E90" r:id="rId20" display="https://school.programmers.co.kr/learn/courses/30/lessons/148653" xr:uid="{B3A7DCBC-9123-DB4C-B2F8-AB1E4D128E18}"/>
+    <hyperlink ref="E89" r:id="rId21" display="https://school.programmers.co.kr/learn/courses/30/lessons/148652" xr:uid="{5D632E59-A892-1E49-9CA3-4BD371F33F9A}"/>
+    <hyperlink ref="E88" r:id="rId22" display="https://school.programmers.co.kr/learn/courses/30/lessons/147354" xr:uid="{6AD56D74-F0EB-0E45-BC08-4483E971969C}"/>
+    <hyperlink ref="E87" r:id="rId23" display="https://school.programmers.co.kr/learn/courses/30/lessons/142085" xr:uid="{56FB62A7-DDDC-E345-B818-8D006E78DD26}"/>
+    <hyperlink ref="E86" r:id="rId24" display="https://school.programmers.co.kr/learn/courses/30/lessons/140107" xr:uid="{BF4CBE5E-F6C3-4B48-86CE-F9D4475F2D2F}"/>
+    <hyperlink ref="E85" r:id="rId25" display="https://school.programmers.co.kr/learn/courses/30/lessons/138476" xr:uid="{43965412-54E6-824D-8562-15A20C3E4858}"/>
+    <hyperlink ref="E84" r:id="rId26" display="https://school.programmers.co.kr/learn/courses/30/lessons/135807" xr:uid="{00B33B53-0FEF-694D-88AF-8382024F4DD1}"/>
+    <hyperlink ref="E83" r:id="rId27" display="https://school.programmers.co.kr/learn/courses/30/lessons/134239" xr:uid="{FCCEEFEF-9B7C-BE48-8334-B948287B8C46}"/>
+    <hyperlink ref="E82" r:id="rId28" display="https://school.programmers.co.kr/learn/courses/30/lessons/132265" xr:uid="{35A63057-33CE-B64D-9996-6729A97C4DA9}"/>
+    <hyperlink ref="E81" r:id="rId29" display="https://school.programmers.co.kr/learn/courses/30/lessons/131704" xr:uid="{4E225D46-5F26-BF4B-8733-E9A299037A32}"/>
+    <hyperlink ref="E80" r:id="rId30" display="https://school.programmers.co.kr/learn/courses/30/lessons/131701" xr:uid="{E9F951E0-4CCB-8941-9AD8-969C1239F2A8}"/>
+    <hyperlink ref="E79" r:id="rId31" display="https://school.programmers.co.kr/learn/courses/30/lessons/131130" xr:uid="{E27EDAF4-7EBF-B449-B123-8F1C5F343C70}"/>
+    <hyperlink ref="E78" r:id="rId32" display="https://school.programmers.co.kr/learn/courses/30/lessons/131127" xr:uid="{2C07FB0D-BE78-D54E-B07A-7BD3D2E0447B}"/>
+    <hyperlink ref="E77" r:id="rId33" display="https://school.programmers.co.kr/learn/courses/30/lessons/118667" xr:uid="{C893378A-EF47-5A46-B76A-4A0D7F7AAF62}"/>
+    <hyperlink ref="E76" r:id="rId34" display="https://school.programmers.co.kr/learn/courses/30/lessons/92342" xr:uid="{31A9D16B-E52F-D44B-B9F0-4B4F2DDF025D}"/>
+    <hyperlink ref="E75" r:id="rId35" display="https://school.programmers.co.kr/learn/courses/30/lessons/92341" xr:uid="{2182821E-B0E2-4E4F-AF13-F360144E661B}"/>
+    <hyperlink ref="E74" r:id="rId36" display="https://school.programmers.co.kr/learn/courses/30/lessons/92335" xr:uid="{23B26759-5C3B-3F40-AD7F-0723EBC8810A}"/>
+    <hyperlink ref="E73" r:id="rId37" display="https://school.programmers.co.kr/learn/courses/30/lessons/87946" xr:uid="{9518234B-C684-F04F-96E6-621637EF8052}"/>
+    <hyperlink ref="E72" r:id="rId38" display="https://school.programmers.co.kr/learn/courses/30/lessons/87390" xr:uid="{2BE890CE-B9E5-464F-8634-7E3897566809}"/>
+    <hyperlink ref="E71" r:id="rId39" display="https://school.programmers.co.kr/learn/courses/30/lessons/87377" xr:uid="{E9ED1DA4-FAB0-0642-A9B5-B773D0170F73}"/>
+    <hyperlink ref="E70" r:id="rId40" display="https://school.programmers.co.kr/learn/courses/30/lessons/86971" xr:uid="{46A14156-B410-F147-9F0D-BF8747CC7EFC}"/>
+    <hyperlink ref="E69" r:id="rId41" display="https://school.programmers.co.kr/learn/courses/30/lessons/86052" xr:uid="{AAF654FF-0E56-754B-AF9B-4136C9CA83D5}"/>
+    <hyperlink ref="E68" r:id="rId42" display="https://school.programmers.co.kr/learn/courses/30/lessons/84512" xr:uid="{8C3BD83F-6709-244B-A246-8C93C330FEB4}"/>
+    <hyperlink ref="E67" r:id="rId43" display="https://school.programmers.co.kr/learn/courses/30/lessons/81302" xr:uid="{1A46F13F-0312-7348-B969-2C5B1D34ED3B}"/>
+    <hyperlink ref="E66" r:id="rId44" display="https://school.programmers.co.kr/learn/courses/30/lessons/77885" xr:uid="{54BF56FB-04BC-034F-AA72-194AFCF52E8E}"/>
+    <hyperlink ref="E65" r:id="rId45" display="https://school.programmers.co.kr/learn/courses/30/lessons/77485" xr:uid="{5E38AB6B-1A13-3C40-B592-60E1391CAC13}"/>
+    <hyperlink ref="E64" r:id="rId46" display="https://school.programmers.co.kr/learn/courses/30/lessons/76502" xr:uid="{E07DAE75-F255-E646-8EEB-A60BB487DF6E}"/>
+    <hyperlink ref="E63" r:id="rId47" display="https://school.programmers.co.kr/learn/courses/30/lessons/72412" xr:uid="{CA5703CC-4AF7-6645-8708-B92C81D30B24}"/>
+    <hyperlink ref="E62" r:id="rId48" display="https://school.programmers.co.kr/learn/courses/30/lessons/72411" xr:uid="{5758F2A6-B486-E941-BD52-4236FC037EF8}"/>
+    <hyperlink ref="E61" r:id="rId49" display="https://school.programmers.co.kr/learn/courses/30/lessons/70129" xr:uid="{1AFD597F-BD2D-F04D-BBF3-FE26C9BD2DE3}"/>
+    <hyperlink ref="E60" r:id="rId50" display="https://school.programmers.co.kr/learn/courses/30/lessons/68936" xr:uid="{AFB46C57-7A55-BB44-91A4-AA15A863072E}"/>
+    <hyperlink ref="E59" r:id="rId51" display="https://school.programmers.co.kr/learn/courses/30/lessons/68645" xr:uid="{1AD7C362-06F1-5A49-9CB9-E078D6315161}"/>
+    <hyperlink ref="E58" r:id="rId52" display="https://school.programmers.co.kr/learn/courses/30/lessons/67257" xr:uid="{B4C4B28E-35F2-3B4C-BA04-674215C599EE}"/>
+    <hyperlink ref="E57" r:id="rId53" display="https://school.programmers.co.kr/learn/courses/30/lessons/64065" xr:uid="{E182CA40-BCBE-FE47-9F14-3D93826EABE3}"/>
+    <hyperlink ref="E56" r:id="rId54" display="https://school.programmers.co.kr/learn/courses/30/lessons/62048" xr:uid="{3DAEEA08-6E24-864C-A014-A384DE7CC2DF}"/>
+    <hyperlink ref="E55" r:id="rId55" display="https://school.programmers.co.kr/learn/courses/30/lessons/60058" xr:uid="{71343C03-C50D-5242-AD99-B07BF4A230F6}"/>
+    <hyperlink ref="E54" r:id="rId56" display="https://school.programmers.co.kr/learn/courses/30/lessons/60057" xr:uid="{1E79FF23-C18B-4E47-AA82-0C202E7AAB7A}"/>
+    <hyperlink ref="E53" r:id="rId57" display="https://school.programmers.co.kr/learn/courses/30/lessons/49994" xr:uid="{DE1B1038-0B21-3E41-89AE-746ACBEDF75B}"/>
+    <hyperlink ref="E52" r:id="rId58" display="https://school.programmers.co.kr/learn/courses/30/lessons/49993" xr:uid="{3879617F-46FE-444A-ACEF-1C242E856BAF}"/>
+    <hyperlink ref="E51" r:id="rId59" display="https://school.programmers.co.kr/learn/courses/30/lessons/43165" xr:uid="{535AF672-4DBE-D84F-8D32-444765E3A648}"/>
+    <hyperlink ref="E50" r:id="rId60" display="https://school.programmers.co.kr/learn/courses/30/lessons/42890" xr:uid="{76743FB5-B27A-1941-B543-B1A3408F28DD}"/>
+    <hyperlink ref="E49" r:id="rId61" display="https://school.programmers.co.kr/learn/courses/30/lessons/42888" xr:uid="{A2605593-E65B-9B41-AF14-5CFEC780A691}"/>
+    <hyperlink ref="E48" r:id="rId62" display="https://school.programmers.co.kr/learn/courses/30/lessons/42885" xr:uid="{A2F6F4F5-A8EF-2442-8D4E-1FF05B81B106}"/>
+    <hyperlink ref="E47" r:id="rId63" display="https://school.programmers.co.kr/learn/courses/30/lessons/42883" xr:uid="{5766FA9D-1B2D-7A4F-A347-3E7F626306F2}"/>
+    <hyperlink ref="E46" r:id="rId64" display="https://school.programmers.co.kr/learn/courses/30/lessons/42860" xr:uid="{17C69D3A-E0E3-064A-85A0-14CFB9680806}"/>
+    <hyperlink ref="E45" r:id="rId65" display="https://school.programmers.co.kr/learn/courses/30/lessons/42842" xr:uid="{BB4DAA31-ECC7-F948-8AF0-1B095B03B6EE}"/>
+    <hyperlink ref="E44" r:id="rId66" display="https://school.programmers.co.kr/learn/courses/30/lessons/42839" xr:uid="{03B7BC3A-3C35-0444-B825-604E17D03F85}"/>
+    <hyperlink ref="E43" r:id="rId67" display="https://school.programmers.co.kr/learn/courses/30/lessons/42747" xr:uid="{159A5FED-820B-D242-8974-AD50A8C1475D}"/>
+    <hyperlink ref="E42" r:id="rId68" display="https://school.programmers.co.kr/learn/courses/30/lessons/42746" xr:uid="{EE967706-255D-BE40-95C4-DD673FB21BBF}"/>
+    <hyperlink ref="E41" r:id="rId69" display="https://school.programmers.co.kr/learn/courses/30/lessons/42626" xr:uid="{C79197C0-511E-DD44-AA64-74240EE04F7C}"/>
+    <hyperlink ref="E40" r:id="rId70" display="https://school.programmers.co.kr/learn/courses/30/lessons/42587" xr:uid="{6DC97DF4-FFB8-654C-9D83-9AA51EAB8386}"/>
+    <hyperlink ref="E39" r:id="rId71" display="https://school.programmers.co.kr/learn/courses/30/lessons/42586" xr:uid="{139EB538-26E4-CA44-858A-6DB3DEC0E2ED}"/>
+    <hyperlink ref="E38" r:id="rId72" display="https://school.programmers.co.kr/learn/courses/30/lessons/42584" xr:uid="{BA9376C8-FBF9-AD4A-9359-D039C31E851D}"/>
+    <hyperlink ref="E37" r:id="rId73" display="https://school.programmers.co.kr/learn/courses/30/lessons/42583" xr:uid="{CD2CABA6-C77D-5A4D-B38D-B50AB867E5D7}"/>
+    <hyperlink ref="E36" r:id="rId74" display="https://school.programmers.co.kr/learn/courses/30/lessons/42578" xr:uid="{71764641-4766-8A40-86E3-67BA5A11B6DC}"/>
+    <hyperlink ref="E35" r:id="rId75" display="https://school.programmers.co.kr/learn/courses/30/lessons/42577" xr:uid="{888D3E29-5E06-AF4C-8811-E51584881CA5}"/>
+    <hyperlink ref="E34" r:id="rId76" display="https://school.programmers.co.kr/learn/courses/30/lessons/17687" xr:uid="{1BAD722D-0008-B042-8900-29B560A2092A}"/>
+    <hyperlink ref="E33" r:id="rId77" display="https://school.programmers.co.kr/learn/courses/30/lessons/17686" xr:uid="{EE11237A-CD49-C44D-B8D2-B9FB3B90374F}"/>
+    <hyperlink ref="E32" r:id="rId78" display="https://school.programmers.co.kr/learn/courses/30/lessons/17684" xr:uid="{50A53216-F38A-6547-9E64-A4C9D75E855F}"/>
+    <hyperlink ref="E31" r:id="rId79" display="https://school.programmers.co.kr/learn/courses/30/lessons/17683" xr:uid="{D4A674BB-E3B6-154D-A53D-F028BBBE12D4}"/>
+    <hyperlink ref="E30" r:id="rId80" display="https://school.programmers.co.kr/learn/courses/30/lessons/17680" xr:uid="{521EA839-2752-D047-8225-D178364B010D}"/>
+    <hyperlink ref="E29" r:id="rId81" display="https://school.programmers.co.kr/learn/courses/30/lessons/17679" xr:uid="{403F1EDA-B40D-884F-A0F7-2AF31FC0D841}"/>
+    <hyperlink ref="E28" r:id="rId82" display="https://school.programmers.co.kr/learn/courses/30/lessons/17677" xr:uid="{0D4DF26F-C729-444C-95DB-9DB79D624FF4}"/>
+    <hyperlink ref="E27" r:id="rId83" display="https://school.programmers.co.kr/learn/courses/30/lessons/12985" xr:uid="{567ABD2F-A199-A842-9452-CF081F9F163D}"/>
+    <hyperlink ref="E26" r:id="rId84" display="https://school.programmers.co.kr/learn/courses/30/lessons/12981" xr:uid="{8481CCE2-D187-8349-BEBD-3ECE806B6858}"/>
+    <hyperlink ref="E25" r:id="rId85" display="https://school.programmers.co.kr/learn/courses/30/lessons/12980" xr:uid="{615D5A75-6341-D640-BCC3-4BEC08EE0019}"/>
+    <hyperlink ref="E24" r:id="rId86" display="https://school.programmers.co.kr/learn/courses/30/lessons/12978" xr:uid="{AA23E788-B313-B94C-AF92-2EB9438F51F0}"/>
+    <hyperlink ref="E23" r:id="rId87" display="https://school.programmers.co.kr/learn/courses/30/lessons/12973" xr:uid="{3457FDDB-0617-E04F-B89E-C2860389820E}"/>
+    <hyperlink ref="E22" r:id="rId88" display="https://school.programmers.co.kr/learn/courses/30/lessons/12953" xr:uid="{AF2F3379-AB4A-884B-B95E-15F2712B6600}"/>
+    <hyperlink ref="E21" r:id="rId89" display="https://school.programmers.co.kr/learn/courses/30/lessons/12952" xr:uid="{A762FAF9-5B24-4D44-A9C8-60A5671D2402}"/>
+    <hyperlink ref="E20" r:id="rId90" display="https://school.programmers.co.kr/learn/courses/30/lessons/12951" xr:uid="{BDA4258F-B366-794C-BE98-13C63CA9BA87}"/>
+    <hyperlink ref="E19" r:id="rId91" display="https://school.programmers.co.kr/learn/courses/30/lessons/12949" xr:uid="{ACF4E4E2-AC42-634B-BF23-84B5327625F6}"/>
+    <hyperlink ref="E18" r:id="rId92" display="https://school.programmers.co.kr/learn/courses/30/lessons/12946" xr:uid="{54449A37-991D-7840-9D65-B59ADD8E5F3B}"/>
+    <hyperlink ref="E17" r:id="rId93" display="https://school.programmers.co.kr/learn/courses/30/lessons/12945" xr:uid="{0BA2C5C6-62A4-9C4A-ADCA-6625B34367A4}"/>
+    <hyperlink ref="E16" r:id="rId94" display="https://school.programmers.co.kr/learn/courses/30/lessons/12941" xr:uid="{8C9C6B39-D0D3-7C47-A510-A95C8EA660E6}"/>
+    <hyperlink ref="E15" r:id="rId95" display="https://school.programmers.co.kr/learn/courses/30/lessons/12939" xr:uid="{F89B5B9E-4D29-BC48-AA3F-6F26E9CD44C7}"/>
+    <hyperlink ref="E14" r:id="rId96" display="https://school.programmers.co.kr/learn/courses/30/lessons/12936" xr:uid="{E47A6758-1AAB-5944-AD10-ADCA81DFA214}"/>
+    <hyperlink ref="E13" r:id="rId97" display="https://school.programmers.co.kr/learn/courses/30/lessons/12924" xr:uid="{B2840323-6E88-DF48-9DBA-D3A50D5B9A69}"/>
+    <hyperlink ref="E12" r:id="rId98" display="https://school.programmers.co.kr/learn/courses/30/lessons/12923" xr:uid="{3D3F8E22-1AFF-3944-826D-9A2F55ED0154}"/>
+    <hyperlink ref="E11" r:id="rId99" display="https://school.programmers.co.kr/learn/courses/30/lessons/12914" xr:uid="{FBE262B4-92AF-9342-9293-A6F2BE623F96}"/>
+    <hyperlink ref="E10" r:id="rId100" display="https://school.programmers.co.kr/learn/courses/30/lessons/12913" xr:uid="{062406F7-77D4-044E-9CD4-EDE31494FC0F}"/>
     <hyperlink ref="D3" r:id="rId101" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=0&amp;cop_open_problem=N" xr:uid="{E854B2A3-9685-E74F-AB16-6CF9F5CE9F32}"/>
     <hyperlink ref="D4" r:id="rId102" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=1&amp;cop_open_problem=N" xr:uid="{C68AE3C4-09CB-E049-80A0-9DBBBD24250A}"/>
     <hyperlink ref="D5" r:id="rId103" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=2&amp;cop_open_problem=N" xr:uid="{17D50F20-1DBD-9949-997B-572CDAE91262}"/>
@@ -2489,7 +3133,286 @@
     <hyperlink ref="D33" r:id="rId131" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=30&amp;cop_open_problem=N" xr:uid="{142732B8-5D03-794F-9EFC-2D07165F38C8}"/>
     <hyperlink ref="D34" r:id="rId132" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=31&amp;cop_open_problem=N" xr:uid="{0A6E80B6-D2FC-874F-B9D5-0F85B0C2FBD7}"/>
     <hyperlink ref="D35" r:id="rId133" display="http://www.codexpert.org:82/problem.php?cid=3147&amp;dv=0&amp;pid=32&amp;cop_open_problem=N" xr:uid="{6F13ADD0-D1A6-DD44-909F-AAB9CA508A75}"/>
+    <hyperlink ref="E3" r:id="rId134" display="https://school.programmers.co.kr/learn/courses/30/lessons/1844" xr:uid="{743950B8-998B-4BFE-A1B6-B77B3222054D}"/>
+    <hyperlink ref="E4" r:id="rId135" display="https://school.programmers.co.kr/learn/courses/30/lessons/12899" xr:uid="{4558CE5D-DB41-4C47-81DA-1B9E905155C6}"/>
+    <hyperlink ref="E5" r:id="rId136" display="https://school.programmers.co.kr/learn/courses/30/lessons/12900" xr:uid="{07F2C81D-E3B3-40E4-AC37-397222741306}"/>
+    <hyperlink ref="E6" r:id="rId137" display="https://school.programmers.co.kr/learn/courses/30/lessons/12902" xr:uid="{03F33C32-CD28-4909-A0EE-4DE3A0EF649D}"/>
+    <hyperlink ref="E7" r:id="rId138" display="https://school.programmers.co.kr/learn/courses/30/lessons/12905" xr:uid="{C64D4B7E-F167-4C53-A237-697446A2024B}"/>
+    <hyperlink ref="E8" r:id="rId139" display="https://school.programmers.co.kr/learn/courses/30/lessons/12909" xr:uid="{9F23C72F-6A63-4FBB-B999-EF27043DACFB}"/>
+    <hyperlink ref="E9" r:id="rId140" display="https://school.programmers.co.kr/learn/courses/30/lessons/12911" xr:uid="{44E1343C-34CE-416D-8B15-4B755D13C116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5440703A-0A15-461E-84B0-7E114C6E44F9}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5">
+      <c r="A1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15">
+        <v>7</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25">
+      <c r="A10" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="26"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="26"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="28"/>
+    </row>
+    <row r="35" spans="1:1" ht="51.75">
+      <c r="A35" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="51.75">
+      <c r="A36" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="36">
+      <c r="A38" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition descending="1" ref="A2:A8"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A19" r:id="rId1" display="https://programmers.co.kr/skill-assessments" xr:uid="{BC067E63-C1DE-436F-AD31-F6B3ECCABDA9}"/>
+    <hyperlink ref="A20" r:id="rId2" display="https://programmers.co.kr/skill-assessments" xr:uid="{9E04EE53-D1D9-4D57-BB91-59425958541B}"/>
+    <hyperlink ref="A21" r:id="rId3" display="https://school.programmers.co.kr/learn" xr:uid="{2EEF604A-C529-483E-BF2B-02790A2625C3}"/>
+    <hyperlink ref="A24" r:id="rId4" display="https://school.programmers.co.kr/learn/courses/16452/16452-%EC%89%AC%EC%9A%B4-sql-%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%A8%B8%EC%8A%A4-%EB%AC%B8%EC%A0%9C-%ED%95%A8%EA%BB%98%ED%92%80%EA%B8%B0?referer=learn-challenge-course-recommended" xr:uid="{C1560ED9-F00C-4198-8A87-D5B773ED7798}"/>
+    <hyperlink ref="A27" r:id="rId5" display="https://school.programmers.co.kr/learn/courses/10/10-%EC%9E%90%EB%B0%94%EC%8A%A4%ED%81%AC%EB%A6%BD%ED%8A%B8%EC%99%80-%EC%9B%B9-%ED%94%84%EB%A1%A0%ED%8A%B8%EC%97%94%EB%93%9C?referer=learn-challenge-course-recommended" xr:uid="{5767651E-D47C-4EB8-8628-090190D88100}"/>
+    <hyperlink ref="A30" r:id="rId6" display="https://school.programmers.co.kr/learn/courses/21705/21705-pcsql-%ED%95%98%EB%A3%A8-%EB%A7%8C%EC%97%90-sql-%EC%B4%88%EB%B3%B4-%ED%83%88%EC%B6%9C?referer=learn-challenge-course-recommended" xr:uid="{D16233C8-2793-427D-A510-968C15172911}"/>
+    <hyperlink ref="A33" r:id="rId7" display="https://career.programmers.co.kr/job" xr:uid="{61F3AF2D-A072-400B-A715-DFE2EBF8281C}"/>
+    <hyperlink ref="A35" r:id="rId8" display="https://career.programmers.co.kr/job_positions/2385?personalized=true&amp;referer=open_challenge" xr:uid="{E0063388-32D2-4635-9EBF-791D522910B6}"/>
+    <hyperlink ref="A36" r:id="rId9" display="https://career.programmers.co.kr/companies/2806" xr:uid="{0E1DEF8E-7E9E-4395-B7E0-25B3F1A1FC97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A00E54D-728A-4509-B2C8-B2BBED5B6D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F098F1-45C6-4691-9C03-D0CA3AE2ADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -866,21 +866,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -892,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,9 +918,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -983,16 +971,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,7 +1571,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -1602,27 +1587,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1635,13 +1620,13 @@
       <c r="F2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>45383</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1650,7 +1635,7 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>193</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1662,7 +1647,7 @@
       <c r="A4" s="1">
         <v>45384</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1671,7 +1656,7 @@
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>191</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1683,7 +1668,7 @@
       <c r="A5" s="1">
         <v>45385</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1692,7 +1677,7 @@
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>189</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1703,7 +1688,7 @@
       <c r="A6" s="1">
         <v>45386</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1712,7 +1697,7 @@
       <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="29" t="s">
         <v>187</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1723,7 +1708,7 @@
       <c r="A7" s="1">
         <v>45387</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1732,7 +1717,7 @@
       <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>185</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1743,7 +1728,7 @@
       <c r="A8" s="1">
         <v>45388</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1752,7 +1737,7 @@
       <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>183</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1763,7 +1748,7 @@
       <c r="A9" s="1">
         <v>45389</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="31">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1772,7 +1757,7 @@
       <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>181</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1783,7 +1768,7 @@
       <c r="A10" s="1">
         <v>45390</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="31">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1823,16 +1808,16 @@
       <c r="A12" s="1">
         <v>45392</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="11">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -1843,16 +1828,16 @@
       <c r="A13" s="1">
         <v>45393</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="11">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -1863,16 +1848,16 @@
       <c r="A14" s="1">
         <v>45394</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1883,16 +1868,16 @@
       <c r="A15" s="1">
         <v>45395</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="11">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="9" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -1903,16 +1888,16 @@
       <c r="A16" s="1">
         <v>45396</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="11">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -1923,16 +1908,16 @@
       <c r="A17" s="1">
         <v>45397</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="11">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -3159,240 +3144,240 @@
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
     </row>
     <row r="35" spans="1:1" ht="51.75">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="51.75">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="36">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>215</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F098F1-45C6-4691-9C03-D0CA3AE2ADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA52FF-917F-4F8A-802D-9CC773FA29EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="216">
-  <si>
-    <t>문제번호  </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="239">
   <si>
     <t>제목  </t>
   </si>
@@ -721,15 +718,91 @@
   <si>
     <t>서울시 강동구</t>
   </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 구성</t>
+  </si>
+  <si>
+    <t>강의 안내</t>
+  </si>
+  <si>
+    <t>코드이해) 협찬 해결</t>
+  </si>
+  <si>
+    <t>코드이해) 바이러스 검사</t>
+  </si>
+  <si>
+    <t>노즐 교체</t>
+  </si>
+  <si>
+    <t>Loop 실행기</t>
+  </si>
+  <si>
+    <t>건물옥상정원</t>
+  </si>
+  <si>
+    <t>계산기</t>
+  </si>
+  <si>
+    <t>그림인식</t>
+  </si>
+  <si>
+    <t>도로건설</t>
+  </si>
+  <si>
+    <t>무인열차</t>
+  </si>
+  <si>
+    <t>물류창고</t>
+  </si>
+  <si>
+    <t>불우이웃돕기</t>
+  </si>
+  <si>
+    <t>셀프살균케어</t>
+  </si>
+  <si>
+    <t>신도시</t>
+  </si>
+  <si>
+    <t>심리학 실험</t>
+  </si>
+  <si>
+    <t>장기자랑</t>
+  </si>
+  <si>
+    <t>재고정리</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>SW역량인증 신청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW역량인증 응시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;/&quot;dd\ \(aaa\)"/>
+    <numFmt numFmtId="182" formatCode="mm&quot;/&quot;dd\ \(aaa\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,6 +924,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -887,38 +969,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -971,13 +1032,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +1067,23 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1568,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -1576,1407 +1674,1651 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="3"/>
+    <col min="1" max="1" width="9.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="2" t="s">
+      <c r="H1" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="26" customFormat="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22">
+        <v>45383</v>
+      </c>
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22">
+        <v>45384</v>
+      </c>
+      <c r="B4" s="25">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22">
+        <v>45385</v>
+      </c>
+      <c r="B5" s="25">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22">
+        <v>45386</v>
+      </c>
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22">
+        <v>45387</v>
+      </c>
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22">
+        <v>45388</v>
+      </c>
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22">
+        <v>45389</v>
+      </c>
+      <c r="B9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
+        <v>45390</v>
+      </c>
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22">
+        <v>45391</v>
+      </c>
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22">
+        <v>45392</v>
+      </c>
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="22">
+        <v>45393</v>
+      </c>
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22">
+        <v>45394</v>
+      </c>
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22">
+        <v>45395</v>
+      </c>
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22">
+        <v>45396</v>
+      </c>
+      <c r="B16" s="31">
+        <v>14</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="22">
+        <v>45397</v>
+      </c>
+      <c r="B17" s="31">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22">
+        <v>45398</v>
+      </c>
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22">
+        <v>45399</v>
+      </c>
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22">
+        <v>45400</v>
+      </c>
+      <c r="B20" s="25">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22">
+        <v>45401</v>
+      </c>
+      <c r="B21" s="25">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22">
+        <v>45402</v>
+      </c>
+      <c r="B22" s="25">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22">
+        <v>45403</v>
+      </c>
+      <c r="B23" s="25">
+        <v>21</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="22">
+        <v>45404</v>
+      </c>
+      <c r="B24" s="25">
+        <v>22</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="22">
+        <v>45405</v>
+      </c>
+      <c r="B25" s="25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="22">
+        <v>45406</v>
+      </c>
+      <c r="B26" s="25">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22">
+        <v>45407</v>
+      </c>
+      <c r="B27" s="25">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="22">
+        <v>45408</v>
+      </c>
+      <c r="B28" s="25">
+        <v>26</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="22">
+        <v>45409</v>
+      </c>
+      <c r="B29" s="25">
+        <v>27</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>45385</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>45386</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>45387</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>45388</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>45389</v>
-      </c>
-      <c r="B9" s="31">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>45390</v>
-      </c>
-      <c r="B10" s="31">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="F29" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="22">
+        <v>45410</v>
+      </c>
+      <c r="B30" s="25">
+        <v>28</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="22">
+        <v>45411</v>
+      </c>
+      <c r="B31" s="25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="22">
+        <v>45412</v>
+      </c>
+      <c r="B32" s="25">
+        <v>30</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="22">
+        <v>45413</v>
+      </c>
+      <c r="B33" s="25">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="22">
+        <v>45414</v>
+      </c>
+      <c r="B34" s="25">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="22">
+        <v>45415</v>
+      </c>
+      <c r="B35" s="25">
+        <v>33</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="22">
+        <v>45416</v>
+      </c>
+      <c r="B36" s="25">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25">
+        <v>25268</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="22">
+        <v>45417</v>
+      </c>
+      <c r="B37" s="25">
+        <v>35</v>
+      </c>
+      <c r="C37" s="25">
+        <v>25274</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22">
+        <v>45418</v>
+      </c>
+      <c r="B38" s="25">
+        <v>36</v>
+      </c>
+      <c r="C38" s="25">
+        <v>25275</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="22">
+        <v>45419</v>
+      </c>
+      <c r="B39" s="25">
+        <v>37</v>
+      </c>
+      <c r="C39" s="25">
+        <v>25260</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22">
+        <v>45420</v>
+      </c>
+      <c r="B40" s="25">
+        <v>38</v>
+      </c>
+      <c r="C40" s="25">
+        <v>25257</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="22">
+        <v>45421</v>
+      </c>
+      <c r="B41" s="25">
+        <v>39</v>
+      </c>
+      <c r="C41" s="25">
+        <v>25263</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22">
+        <v>45422</v>
+      </c>
+      <c r="B42" s="25">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25">
+        <v>25264</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22">
+        <v>45423</v>
+      </c>
+      <c r="B43" s="25">
+        <v>41</v>
+      </c>
+      <c r="C43" s="25">
+        <v>25265</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22">
+        <v>45424</v>
+      </c>
+      <c r="B44" s="25">
+        <v>42</v>
+      </c>
+      <c r="C44" s="25">
+        <v>25271</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22">
+        <v>45425</v>
+      </c>
+      <c r="B45" s="25">
+        <v>43</v>
+      </c>
+      <c r="C45" s="25">
+        <v>25267</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22">
+        <v>45426</v>
+      </c>
+      <c r="B46" s="25">
+        <v>44</v>
+      </c>
+      <c r="C46" s="25">
+        <v>25273</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="22">
+        <v>45427</v>
+      </c>
+      <c r="B47" s="25">
+        <v>45</v>
+      </c>
+      <c r="C47" s="25">
+        <v>25280</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="22">
+        <v>45428</v>
+      </c>
+      <c r="B48" s="25">
+        <v>46</v>
+      </c>
+      <c r="C48" s="25">
+        <v>25276</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="22">
+        <v>45429</v>
+      </c>
+      <c r="B49" s="25">
+        <v>47</v>
+      </c>
+      <c r="C49" s="25">
+        <v>25282</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>45391</v>
-      </c>
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>45392</v>
-      </c>
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>45393</v>
-      </c>
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B14" s="11">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>45395</v>
-      </c>
-      <c r="B15" s="11">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>45396</v>
-      </c>
-      <c r="B16" s="11">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>45397</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>45400</v>
-      </c>
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>45401</v>
-      </c>
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>45402</v>
-      </c>
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>45403</v>
-      </c>
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>45404</v>
-      </c>
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>45405</v>
-      </c>
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>45406</v>
-      </c>
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="F49" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="22">
+        <v>45430</v>
+      </c>
+      <c r="B50" s="25">
         <v>48</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C50" s="25">
+        <v>25278</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="22">
+        <v>45431</v>
+      </c>
+      <c r="B51" s="25">
         <v>49</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>45407</v>
-      </c>
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="C51" s="25">
+        <v>25259</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="22">
+        <v>45432</v>
+      </c>
+      <c r="B52" s="25">
         <v>50</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C52" s="25">
+        <v>25262</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="22">
+        <v>45433</v>
+      </c>
+      <c r="B53" s="25">
         <v>51</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>45408</v>
-      </c>
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="C53" s="25">
+        <v>25270</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="22">
+        <v>45434</v>
+      </c>
+      <c r="B54" s="25">
         <v>52</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C54" s="25">
+        <v>25272</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="22">
+        <v>45435</v>
+      </c>
+      <c r="B55" s="25">
         <v>53</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>45409</v>
-      </c>
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="C55" s="25">
+        <v>25258</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="22">
+        <v>45436</v>
+      </c>
+      <c r="B56" s="25">
         <v>54</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D56" s="29"/>
+      <c r="E56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="22">
+        <v>45437</v>
+      </c>
+      <c r="B57" s="25">
         <v>55</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>45410</v>
-      </c>
-      <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="D57" s="29"/>
+      <c r="E57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="22">
+        <v>45438</v>
+      </c>
+      <c r="B58" s="25">
         <v>56</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D58" s="29"/>
+      <c r="E58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="22">
+        <v>45439</v>
+      </c>
+      <c r="B59" s="25">
         <v>57</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="22">
+        <v>45440</v>
+      </c>
+      <c r="B60" s="25">
+        <v>58</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="22">
+        <v>45441</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="22">
+        <v>45442</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="22">
+        <v>45443</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="22">
+        <v>45444</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="22">
+        <v>45445</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="22">
+        <v>45446</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="22">
+        <v>45447</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="22">
+        <v>45448</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="22">
+        <v>45449</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>45411</v>
-      </c>
-      <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B33" s="3">
-        <v>31</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>45414</v>
-      </c>
-      <c r="B34" s="3">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B35" s="3">
-        <v>33</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>45416</v>
-      </c>
-      <c r="B36" s="3">
-        <v>34</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>45417</v>
-      </c>
-      <c r="B37" s="3">
-        <v>35</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>45418</v>
-      </c>
-      <c r="B38" s="3">
-        <v>36</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>45419</v>
-      </c>
-      <c r="B39" s="3">
-        <v>37</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>45420</v>
-      </c>
-      <c r="B40" s="3">
-        <v>38</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>45421</v>
-      </c>
-      <c r="B41" s="3">
-        <v>39</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B42" s="3">
-        <v>40</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>45423</v>
-      </c>
-      <c r="B43" s="3">
-        <v>41</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="3">
-        <v>42</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="3">
-        <v>43</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="3">
-        <v>44</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="3">
-        <v>45</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="3">
-        <v>46</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="3">
-        <v>47</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="3">
-        <v>48</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="F69" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="22">
+        <v>45450</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="22">
+        <v>45451</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="22">
+        <v>45452</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="22">
+        <v>45453</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="22">
+        <v>45454</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="22">
+        <v>45455</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="22">
+        <v>45456</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="22">
+        <v>45457</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="E78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="E79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="E80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="E83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="E86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="E88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="3">
-        <v>49</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="3">
-        <v>51</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="3">
-        <v>52</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="3">
-        <v>53</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="3">
-        <v>54</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="3">
-        <v>55</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="3">
-        <v>56</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="3">
-        <v>57</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="3">
-        <v>58</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="E61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="E62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="E63" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="E64" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="7" t="s">
+      <c r="F89" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="E91" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="E92" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="E93" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="E94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6">
+      <c r="E95" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6">
+      <c r="E96" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6">
-      <c r="E74" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6">
-      <c r="E75" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6">
-      <c r="E77" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6">
-      <c r="E78" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6">
-      <c r="E79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="E81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="E83" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="E87" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="E88" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="E91" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6">
-      <c r="E92" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6">
-      <c r="E94" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6">
-      <c r="E95" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6">
-      <c r="E96" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="E106" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="E109" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>71</v>
+      <c r="F109" s="28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
@@ -2984,6 +3326,14 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A77">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>WEEKDAY(A3)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>WEEKDAY(A3)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E109" r:id="rId1" display="https://school.programmers.co.kr/learn/courses/30/lessons/258711" xr:uid="{B2176E9E-209D-354D-A1AE-0157BDA0052E}"/>
     <hyperlink ref="E108" r:id="rId2" display="https://school.programmers.co.kr/learn/courses/30/lessons/250136" xr:uid="{3003FE0F-FBF5-0C4C-B5B0-30D20AE08EAF}"/>
@@ -3125,6 +3475,26 @@
     <hyperlink ref="E7" r:id="rId138" display="https://school.programmers.co.kr/learn/courses/30/lessons/12905" xr:uid="{C64D4B7E-F167-4C53-A237-697446A2024B}"/>
     <hyperlink ref="E8" r:id="rId139" display="https://school.programmers.co.kr/learn/courses/30/lessons/12909" xr:uid="{9F23C72F-6A63-4FBB-B999-EF27043DACFB}"/>
     <hyperlink ref="E9" r:id="rId140" display="https://school.programmers.co.kr/learn/courses/30/lessons/12911" xr:uid="{44E1343C-34CE-416D-8B15-4B755D13C116}"/>
+    <hyperlink ref="D36" r:id="rId141" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25268/%EC%8B%9C%ED%97%98-%EA%B5%AC%EC%84%B1" xr:uid="{0D2E92B5-058D-4480-95EF-3240B9681A25}"/>
+    <hyperlink ref="D37" r:id="rId142" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25274/%EA%B0%95%EC%9D%98-%EC%95%88%EB%82%B4" xr:uid="{7FBC61F2-87DF-41C1-B8D6-8568AD07395F}"/>
+    <hyperlink ref="D38" r:id="rId143" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25275/%EC%BD%94%EB%93%9C%EC%9D%B4%ED%95%B4-%ED%98%91%EC%B0%AC-%ED%95%B4%EA%B2%B0" xr:uid="{27FC57A2-5FFC-4E50-BEB6-E98AC97FAE17}"/>
+    <hyperlink ref="D39" r:id="rId144" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25260/%EC%BD%94%EB%93%9C%EC%9D%B4%ED%95%B4-%EB%B0%94%EC%9D%B4%EB%9F%AC%EC%8A%A4-%EA%B2%80%EC%82%AC" xr:uid="{EB6F5286-B18C-44EF-9F01-C730D8A762C3}"/>
+    <hyperlink ref="D40" r:id="rId145" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25257/%EB%85%B8%EC%A6%90-%EA%B5%90%EC%B2%B4" xr:uid="{4B353EF5-3B44-4258-94DC-9CCEC3B7D25D}"/>
+    <hyperlink ref="D41" r:id="rId146" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25263/loop-%EC%8B%A4%ED%96%89%EA%B8%B0" xr:uid="{EC1FB2B6-DF02-439F-A1F8-01522D41025F}"/>
+    <hyperlink ref="D42" r:id="rId147" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25264/%EA%B1%B4%EB%AC%BC%EC%98%A5%EC%83%81%EC%A0%95%EC%9B%90" xr:uid="{07115C14-1EA9-44B1-A949-CC35A3A0C7E9}"/>
+    <hyperlink ref="D43" r:id="rId148" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25265/%EA%B3%84%EC%82%B0%EA%B8%B0" xr:uid="{EF72E89F-DEA2-4D1A-8EBA-7E63AA66C478}"/>
+    <hyperlink ref="D44" r:id="rId149" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25271/%EA%B7%B8%EB%A6%BC%EC%9D%B8%EC%8B%9D" xr:uid="{7F271F71-98D0-437A-B8B9-B6A3E7DFE85C}"/>
+    <hyperlink ref="D45" r:id="rId150" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25267/%EB%8F%84%EB%A1%9C%EA%B1%B4%EC%84%A4" xr:uid="{37049369-9866-4EDA-B129-0EE409440096}"/>
+    <hyperlink ref="D46" r:id="rId151" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25273/%EB%AC%B4%EC%9D%B8%EC%97%B4%EC%B0%A8" xr:uid="{E3BF0CE8-48B0-4B31-A053-CA18FA5C3AF1}"/>
+    <hyperlink ref="D47" r:id="rId152" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25280/%EB%AC%BC%EB%A5%98%EC%B0%BD%EA%B3%A0" xr:uid="{6D90626B-888B-4B48-880C-27F0FCCA8D4C}"/>
+    <hyperlink ref="D48" r:id="rId153" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25276/%EB%B6%88%EC%9A%B0%EC%9D%B4%EC%9B%83%EB%8F%95%EA%B8%B0" xr:uid="{F8839C97-A6F7-44FD-84FA-75BA53273726}"/>
+    <hyperlink ref="D49" r:id="rId154" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25282/%EC%85%80%ED%94%84%EC%82%B4%EA%B7%A0%EC%BC%80%EC%96%B4" xr:uid="{CDBBF723-A718-484F-A030-C4107C06099D}"/>
+    <hyperlink ref="D50" r:id="rId155" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25278/%EC%8B%A0%EB%8F%84%EC%8B%9C" xr:uid="{A62AB56A-31FC-4B45-8706-BA1E9E92E05E}"/>
+    <hyperlink ref="D51" r:id="rId156" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25259/%EC%8B%AC%EB%A6%AC%ED%95%99-%EC%8B%A4%ED%97%98" xr:uid="{A5044859-E89A-44B6-B101-D67890E11DC4}"/>
+    <hyperlink ref="D52" r:id="rId157" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25262/%EC%9E%A5%EA%B8%B0%EC%9E%90%EB%9E%91" xr:uid="{D1680B5A-573B-470E-88CA-9FBDADF9F62C}"/>
+    <hyperlink ref="D53" r:id="rId158" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25270/%EC%9E%AC%EA%B3%A0%EC%A0%95%EB%A6%AC" xr:uid="{AA4057C1-6E6F-4206-9525-B5AFFC59ECB4}"/>
+    <hyperlink ref="D54" r:id="rId159" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25272/chef" xr:uid="{16BACB38-C51D-4AF3-8B07-EAB8C14158F4}"/>
+    <hyperlink ref="D55" r:id="rId160" display="https://swedu.lge.com/learn/lecture/834/mooc-sw%ED%94%84%EB%A1%9C%EA%B7%B8%EB%9E%98%EB%B0%8D-%EC%97%AD%EB%9F%89%EC%9D%B8%EC%A6%9D%EC%8B%9C%ED%97%98-%EA%B8%B0%EC%B6%9C%EB%AC%B8%EC%A0%9C-%ED%95%B4%EC%84%A4-2024/lesson/25258/led" xr:uid="{8C6ED492-10DE-4535-8C64-CA2CE5EF54DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -3144,241 +3514,241 @@
   <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14">
+      <c r="A2" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25">
+      <c r="A10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14">
-        <v>2</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="23.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="20"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="22" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="22" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="23" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="24" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="23" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="25"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="24" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="26" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="25"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="24" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="26" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="25"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="24" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="26" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35" spans="1:1" ht="51.75">
+      <c r="A35" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="27"/>
-    </row>
-    <row r="35" spans="1:1" ht="51.75">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:1" ht="51.75">
+      <c r="A36" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="51.75">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:1" ht="36">
+      <c r="A38" s="21" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="36">
-      <c r="A38" s="28" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA52FF-917F-4F8A-802D-9CC773FA29EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DCBBE-EE28-490B-BF09-70E1456A53AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -800,7 +800,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="mm&quot;/&quot;dd\ \(aaa\)"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ \(aaa\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1032,42 +1032,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1076,11 +1076,6 @@
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1674,116 +1669,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="25"/>
+    <col min="1" max="1" width="9.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="26" customFormat="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="1:8" s="23" customFormat="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22">
         <v>45383</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="29"/>
+      <c r="F3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22">
         <v>45384</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="29"/>
+      <c r="F4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22">
         <v>45385</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1791,19 +1786,19 @@
       <c r="A6" s="22">
         <v>45386</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1811,19 +1806,19 @@
       <c r="A7" s="22">
         <v>45387</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1831,19 +1826,19 @@
       <c r="A8" s="22">
         <v>45388</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1851,19 +1846,19 @@
       <c r="A9" s="22">
         <v>45389</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1871,10 +1866,10 @@
       <c r="A10" s="22">
         <v>45390</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1883,7 +1878,7 @@
       <c r="E10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1891,10 +1886,10 @@
       <c r="A11" s="22">
         <v>45391</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="24">
         <v>9</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1903,7 +1898,7 @@
       <c r="E11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1911,10 +1906,10 @@
       <c r="A12" s="22">
         <v>45392</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="24">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1923,7 +1918,7 @@
       <c r="E12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1931,10 +1926,10 @@
       <c r="A13" s="22">
         <v>45393</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="24">
         <v>11</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1943,7 +1938,7 @@
       <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1951,10 +1946,10 @@
       <c r="A14" s="22">
         <v>45394</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="24">
         <v>12</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1963,7 +1958,7 @@
       <c r="E14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1971,10 +1966,10 @@
       <c r="A15" s="22">
         <v>45395</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="24">
         <v>13</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1983,7 +1978,7 @@
       <c r="E15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1991,10 +1986,10 @@
       <c r="A16" s="22">
         <v>45396</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="24">
         <v>14</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2003,7 +1998,7 @@
       <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2011,10 +2006,10 @@
       <c r="A17" s="22">
         <v>45397</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="24">
         <v>15</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2023,7 +2018,7 @@
       <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2031,10 +2026,10 @@
       <c r="A18" s="22">
         <v>45398</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="24">
         <v>16</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2043,7 +2038,7 @@
       <c r="E18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2051,10 +2046,10 @@
       <c r="A19" s="22">
         <v>45399</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="24">
         <v>17</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2063,7 +2058,7 @@
       <c r="E19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2071,19 +2066,19 @@
       <c r="A20" s="22">
         <v>45400</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="30">
         <v>18</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2091,19 +2086,19 @@
       <c r="A21" s="22">
         <v>45401</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="30">
         <v>19</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2111,19 +2106,19 @@
       <c r="A22" s="22">
         <v>45402</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="30">
         <v>20</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2131,19 +2126,19 @@
       <c r="A23" s="22">
         <v>45403</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="30">
         <v>21</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2151,19 +2146,19 @@
       <c r="A24" s="22">
         <v>45404</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="30">
         <v>22</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2171,10 +2166,10 @@
       <c r="A25" s="22">
         <v>45405</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>23</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2183,7 +2178,7 @@
       <c r="E25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2191,10 +2186,10 @@
       <c r="A26" s="22">
         <v>45406</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>24</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2203,7 +2198,7 @@
       <c r="E26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2211,10 +2206,10 @@
       <c r="A27" s="22">
         <v>45407</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>25</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2223,7 +2218,7 @@
       <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2231,10 +2226,10 @@
       <c r="A28" s="22">
         <v>45408</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>26</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2243,7 +2238,7 @@
       <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2251,10 +2246,10 @@
       <c r="A29" s="22">
         <v>45409</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>27</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2263,7 +2258,7 @@
       <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2271,10 +2266,10 @@
       <c r="A30" s="22">
         <v>45410</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>28</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2283,7 +2278,7 @@
       <c r="E30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2291,10 +2286,10 @@
       <c r="A31" s="22">
         <v>45411</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>29</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2303,7 +2298,7 @@
       <c r="E31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2311,10 +2306,10 @@
       <c r="A32" s="22">
         <v>45412</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2323,7 +2318,7 @@
       <c r="E32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2331,10 +2326,10 @@
       <c r="A33" s="22">
         <v>45413</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>31</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2343,7 +2338,7 @@
       <c r="E33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2351,10 +2346,10 @@
       <c r="A34" s="22">
         <v>45414</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>32</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2363,7 +2358,7 @@
       <c r="E34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2371,10 +2366,10 @@
       <c r="A35" s="22">
         <v>45415</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>33</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2383,7 +2378,7 @@
       <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2391,10 +2386,10 @@
       <c r="A36" s="22">
         <v>45416</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <v>34</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="24">
         <v>25268</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2403,7 +2398,7 @@
       <c r="E36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2411,10 +2406,10 @@
       <c r="A37" s="22">
         <v>45417</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <v>35</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>25274</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2423,7 +2418,7 @@
       <c r="E37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2431,10 +2426,10 @@
       <c r="A38" s="22">
         <v>45418</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="24">
         <v>36</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>25275</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2443,7 +2438,7 @@
       <c r="E38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2451,10 +2446,10 @@
       <c r="A39" s="22">
         <v>45419</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>37</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="24">
         <v>25260</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2463,7 +2458,7 @@
       <c r="E39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2471,10 +2466,10 @@
       <c r="A40" s="22">
         <v>45420</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="24">
         <v>38</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="24">
         <v>25257</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2483,7 +2478,7 @@
       <c r="E40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2491,10 +2486,10 @@
       <c r="A41" s="22">
         <v>45421</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <v>39</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="24">
         <v>25263</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2503,7 +2498,7 @@
       <c r="E41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2511,10 +2506,10 @@
       <c r="A42" s="22">
         <v>45422</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <v>40</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <v>25264</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2523,10 +2518,10 @@
       <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="30" t="s">
+      <c r="F42" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="27" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2534,10 +2529,10 @@
       <c r="A43" s="22">
         <v>45423</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="24">
         <v>41</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="24">
         <v>25265</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2546,7 +2541,7 @@
       <c r="E43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2554,10 +2549,10 @@
       <c r="A44" s="22">
         <v>45424</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="24">
         <v>42</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="24">
         <v>25271</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2566,7 +2561,7 @@
       <c r="E44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2574,10 +2569,10 @@
       <c r="A45" s="22">
         <v>45425</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="24">
         <v>43</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>25267</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2586,7 +2581,7 @@
       <c r="E45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2594,10 +2589,10 @@
       <c r="A46" s="22">
         <v>45426</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="24">
         <v>44</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="24">
         <v>25273</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2606,7 +2601,7 @@
       <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2614,10 +2609,10 @@
       <c r="A47" s="22">
         <v>45427</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="24">
         <v>45</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="24">
         <v>25280</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2626,7 +2621,7 @@
       <c r="E47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2634,10 +2629,10 @@
       <c r="A48" s="22">
         <v>45428</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="24">
         <v>46</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="24">
         <v>25276</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2646,7 +2641,7 @@
       <c r="E48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2654,10 +2649,10 @@
       <c r="A49" s="22">
         <v>45429</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <v>47</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="24">
         <v>25282</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2666,7 +2661,7 @@
       <c r="E49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2674,10 +2669,10 @@
       <c r="A50" s="22">
         <v>45430</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <v>48</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="24">
         <v>25278</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -2686,7 +2681,7 @@
       <c r="E50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2694,10 +2689,10 @@
       <c r="A51" s="22">
         <v>45431</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <v>49</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="24">
         <v>25259</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -2706,7 +2701,7 @@
       <c r="E51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2714,10 +2709,10 @@
       <c r="A52" s="22">
         <v>45432</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="24">
         <v>50</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="24">
         <v>25262</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -2726,7 +2721,7 @@
       <c r="E52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2734,10 +2729,10 @@
       <c r="A53" s="22">
         <v>45433</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="24">
         <v>51</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="24">
         <v>25270</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2746,7 +2741,7 @@
       <c r="E53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2754,10 +2749,10 @@
       <c r="A54" s="22">
         <v>45434</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="24">
         <v>52</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="24">
         <v>25272</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -2766,7 +2761,7 @@
       <c r="E54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2774,10 +2769,10 @@
       <c r="A55" s="22">
         <v>45435</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="24">
         <v>53</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="24">
         <v>25258</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -2786,7 +2781,7 @@
       <c r="E55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2794,14 +2789,14 @@
       <c r="A56" s="22">
         <v>45436</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <v>54</v>
       </c>
-      <c r="D56" s="29"/>
+      <c r="D56"/>
       <c r="E56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2809,14 +2804,14 @@
       <c r="A57" s="22">
         <v>45437</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="24">
         <v>55</v>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57"/>
       <c r="E57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2824,14 +2819,14 @@
       <c r="A58" s="22">
         <v>45438</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="24">
         <v>56</v>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58"/>
       <c r="E58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2839,14 +2834,14 @@
       <c r="A59" s="22">
         <v>45439</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="24">
         <v>57</v>
       </c>
-      <c r="D59" s="29"/>
+      <c r="D59"/>
       <c r="E59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2854,14 +2849,14 @@
       <c r="A60" s="22">
         <v>45440</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="24">
         <v>58</v>
       </c>
-      <c r="D60" s="29"/>
+      <c r="D60"/>
       <c r="E60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2869,11 +2864,11 @@
       <c r="A61" s="22">
         <v>45441</v>
       </c>
-      <c r="D61" s="29"/>
+      <c r="D61"/>
       <c r="E61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2881,11 +2876,11 @@
       <c r="A62" s="22">
         <v>45442</v>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62"/>
       <c r="E62" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2893,11 +2888,11 @@
       <c r="A63" s="22">
         <v>45443</v>
       </c>
-      <c r="D63" s="29"/>
+      <c r="D63"/>
       <c r="E63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2905,11 +2900,11 @@
       <c r="A64" s="22">
         <v>45444</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64"/>
       <c r="E64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2917,11 +2912,11 @@
       <c r="A65" s="22">
         <v>45445</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65"/>
       <c r="E65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2932,7 +2927,7 @@
       <c r="E66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2943,7 +2938,7 @@
       <c r="E67" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2954,7 +2949,7 @@
       <c r="E68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2965,7 +2960,7 @@
       <c r="E69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2976,7 +2971,7 @@
       <c r="E70" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2987,7 +2982,7 @@
       <c r="E71" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2998,7 +2993,7 @@
       <c r="E72" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3009,7 +3004,7 @@
       <c r="E73" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3020,7 +3015,7 @@
       <c r="E74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3031,7 +3026,7 @@
       <c r="E75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3042,7 +3037,7 @@
       <c r="E76" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3053,10 +3048,10 @@
       <c r="E77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F77" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="30" t="s">
+      <c r="F77" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="27" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3064,7 +3059,7 @@
       <c r="E78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3072,7 +3067,7 @@
       <c r="E79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3080,7 +3075,7 @@
       <c r="E80" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3088,7 +3083,7 @@
       <c r="E81" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3096,7 +3091,7 @@
       <c r="E82" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3104,7 +3099,7 @@
       <c r="E83" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3112,7 +3107,7 @@
       <c r="E84" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3120,7 +3115,7 @@
       <c r="E85" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F85" s="28" t="s">
+      <c r="F85" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3128,7 +3123,7 @@
       <c r="E86" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3136,7 +3131,7 @@
       <c r="E87" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3144,7 +3139,7 @@
       <c r="E88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3152,7 +3147,7 @@
       <c r="E89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3160,7 +3155,7 @@
       <c r="E90" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3168,7 +3163,7 @@
       <c r="E91" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3176,7 +3171,7 @@
       <c r="E92" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3184,7 +3179,7 @@
       <c r="E93" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3192,7 +3187,7 @@
       <c r="E94" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3200,7 +3195,7 @@
       <c r="E95" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3208,7 +3203,7 @@
       <c r="E96" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3216,7 +3211,7 @@
       <c r="E97" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3224,7 +3219,7 @@
       <c r="E98" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3232,7 +3227,7 @@
       <c r="E99" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3240,7 +3235,7 @@
       <c r="E100" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3248,7 +3243,7 @@
       <c r="E101" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3256,7 +3251,7 @@
       <c r="E102" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3264,7 +3259,7 @@
       <c r="E103" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F103" s="28" t="s">
+      <c r="F103" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3272,7 +3267,7 @@
       <c r="E104" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F104" s="28" t="s">
+      <c r="F104" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3280,7 +3275,7 @@
       <c r="E105" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F105" s="28" t="s">
+      <c r="F105" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3288,7 +3283,7 @@
       <c r="E106" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3296,7 +3291,7 @@
       <c r="E107" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3304,7 +3299,7 @@
       <c r="E108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F108" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3312,7 +3307,7 @@
       <c r="E109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3327,11 +3322,11 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A3:A77">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>WEEKDAY(A3)=1</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>WEEKDAY(A3)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>WEEKDAY(A3)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DCBBE-EE28-490B-BF09-70E1456A53AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFC32B-0F5E-4A46-9614-FC031AA60197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>[3주차-PY][개념완성 #1 - 응용] 모범생</t>
   </si>
   <si>
-    <t>[6864] C0</t>
-  </si>
-  <si>
     <t>[3주차-PY][개념완성 #1 - 응용] 최소 비용으로 포장 다시 하기</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
   </si>
   <si>
     <t>[3주차-PY][개념완성 #1 - 이론] 이진 탐색(기본)</t>
-  </si>
-  <si>
-    <t>[6865] C2</t>
   </si>
   <si>
     <t>[3주차-PY][개념완성 #1 - 기본] 숫자 찾기 (이진탐색)</t>
@@ -792,6 +786,14 @@
   </si>
   <si>
     <t>SW역량인증 응시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6864] C0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6865] C2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,11 +1058,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1682,40 +1681,40 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="28"/>
@@ -1734,10 +1733,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3"/>
     </row>
@@ -1755,10 +1754,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4"/>
     </row>
@@ -1776,10 +1775,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1796,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1816,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1836,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1856,10 +1855,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1876,10 +1875,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1896,10 +1895,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1916,10 +1915,10 @@
         <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1936,10 +1935,10 @@
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1956,10 +1955,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1976,10 +1975,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1996,10 +1995,10 @@
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2016,10 +2015,10 @@
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2036,10 +2035,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2056,10 +2055,10 @@
         <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2072,14 +2071,14 @@
       <c r="C20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2092,14 +2091,14 @@
       <c r="C21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2112,14 +2111,14 @@
       <c r="C22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2130,16 +2129,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2150,36 +2149,36 @@
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="22">
         <v>45405</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="30">
         <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>238</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2190,16 +2189,16 @@
         <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2210,16 +2209,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2230,16 +2229,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2250,16 +2249,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2270,16 +2269,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2290,16 +2289,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2310,16 +2309,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2330,16 +2329,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2350,16 +2349,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2370,16 +2369,16 @@
         <v>33</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2393,13 +2392,13 @@
         <v>25268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2413,13 +2412,13 @@
         <v>25274</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2433,13 +2432,13 @@
         <v>25275</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2453,13 +2452,13 @@
         <v>25260</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2473,13 +2472,13 @@
         <v>25257</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2493,13 +2492,13 @@
         <v>25263</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2513,16 +2512,16 @@
         <v>25264</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2536,13 +2535,13 @@
         <v>25265</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2556,13 +2555,13 @@
         <v>25271</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2576,13 +2575,13 @@
         <v>25267</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2596,13 +2595,13 @@
         <v>25273</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2616,13 +2615,13 @@
         <v>25280</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2636,13 +2635,13 @@
         <v>25276</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2656,13 +2655,13 @@
         <v>25282</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2676,13 +2675,13 @@
         <v>25278</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2696,13 +2695,13 @@
         <v>25259</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2716,13 +2715,13 @@
         <v>25262</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2736,13 +2735,13 @@
         <v>25270</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2756,13 +2755,13 @@
         <v>25272</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2776,13 +2775,13 @@
         <v>25258</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2794,10 +2793,10 @@
       </c>
       <c r="D56"/>
       <c r="E56" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2809,10 +2808,10 @@
       </c>
       <c r="D57"/>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2824,10 +2823,10 @@
       </c>
       <c r="D58"/>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2839,10 +2838,10 @@
       </c>
       <c r="D59"/>
       <c r="E59" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2854,10 +2853,10 @@
       </c>
       <c r="D60"/>
       <c r="E60" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2866,10 +2865,10 @@
       </c>
       <c r="D61"/>
       <c r="E61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2878,10 +2877,10 @@
       </c>
       <c r="D62"/>
       <c r="E62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2890,10 +2889,10 @@
       </c>
       <c r="D63"/>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2902,10 +2901,10 @@
       </c>
       <c r="D64"/>
       <c r="E64" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2914,10 +2913,10 @@
       </c>
       <c r="D65"/>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2925,10 +2924,10 @@
         <v>45446</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2936,10 +2935,10 @@
         <v>45447</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2947,10 +2946,10 @@
         <v>45448</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2958,10 +2957,10 @@
         <v>45449</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2969,10 +2968,10 @@
         <v>45450</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2980,10 +2979,10 @@
         <v>45451</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2991,10 +2990,10 @@
         <v>45452</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3002,10 +3001,10 @@
         <v>45453</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3013,10 +3012,10 @@
         <v>45454</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3024,10 +3023,10 @@
         <v>45455</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3035,10 +3034,10 @@
         <v>45456</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3046,269 +3045,269 @@
         <v>45457</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="E78" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="E80" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="5:6">
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="5:6">
       <c r="E82" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="5:6">
       <c r="E83" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="5:6">
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="5:6">
       <c r="E85" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="5:6">
       <c r="E86" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="5:6">
       <c r="E87" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="5:6">
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="5:6">
       <c r="E89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="5:6">
       <c r="E90" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="5:6">
       <c r="E91" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="5:6">
       <c r="E92" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="5:6">
       <c r="E93" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="5:6">
       <c r="E94" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="5:6">
       <c r="E95" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="5:6">
       <c r="E96" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="5:6">
       <c r="E97" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="5:6">
       <c r="E98" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="5:6">
       <c r="E99" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="5:6">
       <c r="E100" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="5:6">
       <c r="E101" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="5:6">
       <c r="E102" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="5:6">
       <c r="E103" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="5:6">
       <c r="E104" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="5:6">
       <c r="E105" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="5:6">
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="5:6">
       <c r="E107" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="5:6">
       <c r="E108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="5:6">
       <c r="E109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3510,19 +3509,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5">
       <c r="A1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3530,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" s="11">
         <v>0.6</v>
@@ -3544,10 +3543,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E3" s="11">
         <v>0.5</v>
@@ -3558,10 +3557,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="11">
         <v>0.55000000000000004</v>
@@ -3572,10 +3571,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" s="11">
         <v>0.3</v>
@@ -3586,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="11">
         <v>0.45</v>
@@ -3600,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="11">
         <v>0.78</v>
@@ -3614,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="11">
         <v>0.74</v>
@@ -3625,7 +3624,7 @@
     </row>
     <row r="10" spans="1:5" ht="23.25">
       <c r="A10" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3633,47 +3632,47 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3684,12 +3683,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -3697,12 +3696,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3710,17 +3709,17 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
@@ -3728,22 +3727,22 @@
     </row>
     <row r="35" spans="1:1" ht="51.75">
       <c r="A35" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="51.75">
       <c r="A36" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
       <c r="A37" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="36">
       <c r="A38" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFC32B-0F5E-4A46-9614-FC031AA60197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F396ADE8-0960-4292-866D-D8D9A8311827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,13 +1052,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -1680,30 +1692,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="33" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="23" t="s">
         <v>213</v>
       </c>
@@ -1716,8 +1728,8 @@
       <c r="F2" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22">
@@ -2065,7 +2077,7 @@
       <c r="A20" s="22">
         <v>45400</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="24">
         <v>18</v>
       </c>
       <c r="C20" s="24" t="s">
@@ -2085,7 +2097,7 @@
       <c r="A21" s="22">
         <v>45401</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="24">
         <v>19</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2105,7 +2117,7 @@
       <c r="A22" s="22">
         <v>45402</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="24">
         <v>20</v>
       </c>
       <c r="C22" s="24" t="s">
@@ -2125,7 +2137,7 @@
       <c r="A23" s="22">
         <v>45403</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="24">
         <v>21</v>
       </c>
       <c r="C23" s="24" t="s">
@@ -2145,7 +2157,7 @@
       <c r="A24" s="22">
         <v>45404</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="24">
         <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -2165,7 +2177,7 @@
       <c r="A25" s="22">
         <v>45405</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="24">
         <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
@@ -2185,16 +2197,16 @@
       <c r="A26" s="22">
         <v>45406</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="29">
         <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -2205,16 +2217,16 @@
       <c r="A27" s="22">
         <v>45407</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="29">
         <v>25</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -2225,16 +2237,16 @@
       <c r="A28" s="22">
         <v>45408</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="29">
         <v>26</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -2245,16 +2257,16 @@
       <c r="A29" s="22">
         <v>45409</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="29">
         <v>27</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -2265,16 +2277,16 @@
       <c r="A30" s="22">
         <v>45410</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="29">
         <v>28</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="26" t="s">
@@ -2285,16 +2297,16 @@
       <c r="A31" s="22">
         <v>45411</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="29">
         <v>29</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F31" s="26" t="s">
@@ -2305,16 +2317,16 @@
       <c r="A32" s="22">
         <v>45412</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="29">
         <v>30</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F32" s="26" t="s">
@@ -2325,16 +2337,16 @@
       <c r="A33" s="22">
         <v>45413</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="29">
         <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F33" s="26" t="s">
@@ -2345,16 +2357,16 @@
       <c r="A34" s="22">
         <v>45414</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="29">
         <v>32</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F34" s="26" t="s">
@@ -2365,16 +2377,16 @@
       <c r="A35" s="22">
         <v>45415</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="29">
         <v>33</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="26" t="s">
@@ -2385,16 +2397,16 @@
       <c r="A36" s="22">
         <v>45416</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="29">
         <v>34</v>
       </c>
       <c r="C36" s="24">
         <v>25268</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="26" t="s">
@@ -2405,16 +2417,16 @@
       <c r="A37" s="22">
         <v>45417</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="29">
         <v>35</v>
       </c>
       <c r="C37" s="24">
         <v>25274</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F37" s="26" t="s">
@@ -2425,16 +2437,16 @@
       <c r="A38" s="22">
         <v>45418</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="29">
         <v>36</v>
       </c>
       <c r="C38" s="24">
         <v>25275</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F38" s="26" t="s">
@@ -2445,16 +2457,16 @@
       <c r="A39" s="22">
         <v>45419</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="29">
         <v>37</v>
       </c>
       <c r="C39" s="24">
         <v>25260</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F39" s="26" t="s">
@@ -3040,17 +3052,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="22">
+    <row r="77" spans="1:8" s="29" customFormat="1">
+      <c r="A77" s="30">
         <v>45457</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="31"/>
+      <c r="E77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H77" s="27" t="s">
+      <c r="F77" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="31" t="s">
         <v>236</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\lg-sw-programming-competency-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F396ADE8-0960-4292-866D-D8D9A8311827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF955C54-AAF5-4F1B-AA18-46A08A210054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -2223,7 +2223,7 @@
       <c r="C27" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -2243,7 +2243,7 @@
       <c r="C28" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -2477,16 +2477,16 @@
       <c r="A40" s="22">
         <v>45420</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="29">
         <v>38</v>
       </c>
       <c r="C40" s="24">
         <v>25257</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F40" s="26" t="s">
@@ -2497,16 +2497,16 @@
       <c r="A41" s="22">
         <v>45421</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="29">
         <v>39</v>
       </c>
       <c r="C41" s="24">
         <v>25263</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F41" s="26" t="s">
@@ -2517,16 +2517,16 @@
       <c r="A42" s="22">
         <v>45422</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="29">
         <v>40</v>
       </c>
       <c r="C42" s="24">
         <v>25264</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="26" t="s">
@@ -2540,16 +2540,16 @@
       <c r="A43" s="22">
         <v>45423</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="29">
         <v>41</v>
       </c>
       <c r="C43" s="24">
         <v>25265</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F43" s="26" t="s">
@@ -2560,16 +2560,16 @@
       <c r="A44" s="22">
         <v>45424</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="29">
         <v>42</v>
       </c>
       <c r="C44" s="24">
         <v>25271</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -2580,16 +2580,16 @@
       <c r="A45" s="22">
         <v>45425</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="29">
         <v>43</v>
       </c>
       <c r="C45" s="24">
         <v>25267</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="26" t="s">
@@ -2600,16 +2600,16 @@
       <c r="A46" s="22">
         <v>45426</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="29">
         <v>44</v>
       </c>
       <c r="C46" s="24">
         <v>25273</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>92</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -2620,16 +2620,16 @@
       <c r="A47" s="22">
         <v>45427</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="29">
         <v>45</v>
       </c>
       <c r="C47" s="24">
         <v>25280</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F47" s="26" t="s">
@@ -2640,16 +2640,16 @@
       <c r="A48" s="22">
         <v>45428</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="29">
         <v>46</v>
       </c>
       <c r="C48" s="24">
         <v>25276</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>90</v>
       </c>
       <c r="F48" s="26" t="s">
@@ -2660,16 +2660,16 @@
       <c r="A49" s="22">
         <v>45429</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="29">
         <v>47</v>
       </c>
       <c r="C49" s="24">
         <v>25282</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F49" s="26" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jkim\sw-programming-competency-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF955C54-AAF5-4F1B-AA18-46A08A210054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565D1BD-C3DE-48A4-AA64-50EBD5DE73C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BFE818-BD2E-C74F-A64B-42671E780B0B}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
@@ -2263,7 +2263,7 @@
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2283,7 +2283,7 @@
       <c r="C30" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2303,7 +2303,7 @@
       <c r="C31" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2323,7 +2323,7 @@
       <c r="C32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2680,16 +2680,16 @@
       <c r="A50" s="22">
         <v>45430</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="29">
         <v>48</v>
       </c>
       <c r="C50" s="24">
         <v>25278</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="26" t="s">
@@ -2700,16 +2700,16 @@
       <c r="A51" s="22">
         <v>45431</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="29">
         <v>49</v>
       </c>
       <c r="C51" s="24">
         <v>25259</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F51" s="26" t="s">
@@ -2720,16 +2720,16 @@
       <c r="A52" s="22">
         <v>45432</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="29">
         <v>50</v>
       </c>
       <c r="C52" s="24">
         <v>25262</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F52" s="26" t="s">
@@ -2740,16 +2740,16 @@
       <c r="A53" s="22">
         <v>45433</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="29">
         <v>51</v>
       </c>
       <c r="C53" s="24">
         <v>25270</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F53" s="26" t="s">
@@ -2760,16 +2760,16 @@
       <c r="A54" s="22">
         <v>45434</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="29">
         <v>52</v>
       </c>
       <c r="C54" s="24">
         <v>25272</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F54" s="26" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkim/coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6B322-19F0-D54E-BFB4-3D8D84709D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4672D043-DDB6-8141-879D-B92DE4A54E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{E8364569-7D3A-2B46-B2B2-40B021D80F2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="324">
   <si>
     <t>제목  </t>
   </si>
@@ -1011,6 +1011,14 @@
   </si>
   <si>
     <t>완료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 5, 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1021,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;/&quot;dd\ \(aaa\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1087,13 +1095,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1105,11 +1126,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,64 +1141,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1205,16 +1223,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1554,60 +1562,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.7109375" style="11"/>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>45496</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1616,17 +1624,17 @@
       <c r="E3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="F3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1635,19 +1643,19 @@
       <c r="E4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="10"/>
+      <c r="F4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="7">
+      <c r="A5" s="14">
         <v>45497</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1656,17 +1664,17 @@
       <c r="E5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1675,19 +1683,19 @@
       <c r="E6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>45498</v>
       </c>
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1696,17 +1704,17 @@
       <c r="E7" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1715,19 +1723,19 @@
       <c r="E8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="19">
-      <c r="A9" s="7">
+      <c r="A9" s="14">
         <v>45499</v>
       </c>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1736,17 +1744,17 @@
       <c r="E9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1755,19 +1763,19 @@
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7">
+      <c r="A11" s="14">
         <v>45500</v>
       </c>
-      <c r="B11" s="8">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1776,17 +1784,17 @@
       <c r="E11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1795,19 +1803,19 @@
       <c r="E12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7">
+      <c r="A13" s="14">
         <v>45501</v>
       </c>
-      <c r="B13" s="8">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1816,17 +1824,17 @@
       <c r="E13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1835,19 +1843,19 @@
       <c r="E14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>45502</v>
       </c>
-      <c r="B15" s="8">
-        <v>13</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="6">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1856,17 +1864,17 @@
       <c r="E15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1875,19 +1883,19 @@
       <c r="E16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="8"/>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7">
+      <c r="A17" s="14">
         <v>45503</v>
       </c>
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="6">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1896,17 +1904,17 @@
       <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1915,19 +1923,19 @@
       <c r="E18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7">
+      <c r="A19" s="14">
         <v>45504</v>
       </c>
-      <c r="B19" s="8">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="6">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1936,17 +1944,17 @@
       <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1955,19 +1963,19 @@
       <c r="E20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7">
+      <c r="A21" s="14">
         <v>45505</v>
       </c>
-      <c r="B21" s="8">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="6">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1976,17 +1984,17 @@
       <c r="E21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="F21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="6">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1995,19 +2003,19 @@
       <c r="E22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="F22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>45506</v>
       </c>
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2016,17 +2024,17 @@
       <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="8"/>
+      <c r="F23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8">
-        <v>22</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2035,19 +2043,19 @@
       <c r="E24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="8"/>
+      <c r="F24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7">
+      <c r="A25" s="14">
         <v>45507</v>
       </c>
-      <c r="B25" s="8">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="6">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2056,17 +2064,17 @@
       <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="8"/>
+      <c r="F25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8">
-        <v>24</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2075,19 +2083,19 @@
       <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="8"/>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7">
+      <c r="A27" s="14">
         <v>45508</v>
       </c>
-      <c r="B27" s="8">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="6">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2096,17 +2104,17 @@
       <c r="E27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="8"/>
+      <c r="F27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2115,19 +2123,19 @@
       <c r="E28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="8"/>
+      <c r="F28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7">
+      <c r="A29" s="14">
         <v>45509</v>
       </c>
-      <c r="B29" s="8">
-        <v>27</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="6">
+        <v>31</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2136,17 +2144,17 @@
       <c r="E29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="8"/>
+      <c r="F29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8">
-        <v>28</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="6">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2155,19 +2163,19 @@
       <c r="E30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7">
+      <c r="A31" s="14">
         <v>45510</v>
       </c>
-      <c r="B31" s="8">
-        <v>29</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="6">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2176,17 +2184,17 @@
       <c r="E31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="8"/>
+      <c r="F31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8">
-        <v>30</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2195,19 +2203,19 @@
       <c r="E32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="8"/>
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="7">
+      <c r="A33" s="14">
         <v>45511</v>
       </c>
-      <c r="B33" s="8">
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="6">
+        <v>35</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2216,17 +2224,17 @@
       <c r="E33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="8"/>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8">
-        <v>32</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2235,19 +2243,19 @@
       <c r="E34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="8"/>
+      <c r="F34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7">
+      <c r="A35" s="14">
         <v>45512</v>
       </c>
-      <c r="B35" s="8">
-        <v>33</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="6">
+        <v>37</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2256,17 +2264,17 @@
       <c r="E35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="8"/>
+      <c r="F35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8">
-        <v>34</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6">
         <v>25268</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2275,19 +2283,19 @@
       <c r="E36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="8"/>
+      <c r="F36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7">
+      <c r="A37" s="14">
         <v>45513</v>
       </c>
-      <c r="B37" s="8">
-        <v>35</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="6">
+        <v>39</v>
+      </c>
+      <c r="C37" s="6">
         <v>25274</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2296,17 +2304,17 @@
       <c r="E37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="8"/>
+      <c r="F37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8">
-        <v>36</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6">
+        <v>40</v>
+      </c>
+      <c r="C38" s="6">
         <v>25275</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -2315,19 +2323,19 @@
       <c r="E38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="8"/>
+      <c r="F38" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7">
+      <c r="A39" s="14">
         <v>45514</v>
       </c>
-      <c r="B39" s="8">
-        <v>37</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="6">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6">
         <v>25260</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2336,17 +2344,17 @@
       <c r="E39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="8"/>
+      <c r="F39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8">
-        <v>38</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="A40" s="14"/>
+      <c r="B40" s="6">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6">
         <v>25257</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2355,19 +2363,19 @@
       <c r="E40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="8"/>
+      <c r="F40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7">
+      <c r="A41" s="14">
         <v>45515</v>
       </c>
-      <c r="B41" s="8">
-        <v>39</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="6">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6">
         <v>25263</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2376,17 +2384,17 @@
       <c r="E41" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="8"/>
+      <c r="F41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8">
-        <v>40</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="A42" s="14"/>
+      <c r="B42" s="6">
+        <v>44</v>
+      </c>
+      <c r="C42" s="6">
         <v>25264</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2395,19 +2403,19 @@
       <c r="E42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="8"/>
+      <c r="F42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7">
+      <c r="A43" s="14">
         <v>45516</v>
       </c>
-      <c r="B43" s="8">
-        <v>41</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="6">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6">
         <v>25265</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2416,17 +2424,17 @@
       <c r="E43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="8"/>
+      <c r="F43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8">
-        <v>42</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="A44" s="14"/>
+      <c r="B44" s="6">
+        <v>46</v>
+      </c>
+      <c r="C44" s="6">
         <v>25271</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -2435,19 +2443,19 @@
       <c r="E44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="8"/>
+      <c r="F44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7">
+      <c r="A45" s="14">
         <v>45517</v>
       </c>
-      <c r="B45" s="8">
-        <v>43</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="6">
+        <v>47</v>
+      </c>
+      <c r="C45" s="6">
         <v>25267</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2456,17 +2464,17 @@
       <c r="E45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="8"/>
+      <c r="F45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8">
-        <v>44</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="A46" s="14"/>
+      <c r="B46" s="6">
+        <v>48</v>
+      </c>
+      <c r="C46" s="6">
         <v>25273</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2475,19 +2483,19 @@
       <c r="E46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="8"/>
+      <c r="F46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7">
+      <c r="A47" s="14">
         <v>45518</v>
       </c>
-      <c r="B47" s="8">
-        <v>45</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="6">
+        <v>49</v>
+      </c>
+      <c r="C47" s="6">
         <v>25280</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -2496,17 +2504,17 @@
       <c r="E47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="8"/>
+      <c r="F47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8">
-        <v>46</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="A48" s="14"/>
+      <c r="B48" s="6">
+        <v>50</v>
+      </c>
+      <c r="C48" s="6">
         <v>25276</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2515,19 +2523,19 @@
       <c r="E48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="8"/>
+      <c r="F48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="7">
+      <c r="A49" s="14">
         <v>45519</v>
       </c>
-      <c r="B49" s="8">
-        <v>47</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="6">
+        <v>51</v>
+      </c>
+      <c r="C49" s="6">
         <v>25282</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2536,17 +2544,17 @@
       <c r="E49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="8"/>
+      <c r="F49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8">
-        <v>48</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="A50" s="14"/>
+      <c r="B50" s="6">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6">
         <v>25278</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -2555,19 +2563,19 @@
       <c r="E50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="8"/>
+      <c r="F50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7">
+      <c r="A51" s="14">
         <v>45520</v>
       </c>
-      <c r="B51" s="8">
-        <v>49</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="6">
+        <v>53</v>
+      </c>
+      <c r="C51" s="6">
         <v>25259</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2576,17 +2584,17 @@
       <c r="E51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="8"/>
+      <c r="F51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8">
-        <v>50</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="A52" s="14"/>
+      <c r="B52" s="6">
+        <v>54</v>
+      </c>
+      <c r="C52" s="6">
         <v>25262</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2595,19 +2603,19 @@
       <c r="E52" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="8"/>
+      <c r="F52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="7">
+      <c r="A53" s="14">
         <v>45521</v>
       </c>
-      <c r="B53" s="8">
-        <v>51</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="6">
+        <v>55</v>
+      </c>
+      <c r="C53" s="6">
         <v>25270</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -2616,17 +2624,17 @@
       <c r="E53" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="8"/>
+      <c r="F53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8">
-        <v>52</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="A54" s="14"/>
+      <c r="B54" s="6">
+        <v>56</v>
+      </c>
+      <c r="C54" s="6">
         <v>25272</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -2635,19 +2643,19 @@
       <c r="E54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="8"/>
+      <c r="F54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7">
+      <c r="A55" s="14">
         <v>45522</v>
       </c>
-      <c r="B55" s="8">
-        <v>53</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="6">
+        <v>57</v>
+      </c>
+      <c r="C55" s="6">
         <v>25258</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -2656,17 +2664,17 @@
       <c r="E55" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="8"/>
+      <c r="F55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" ht="19">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8">
-        <v>54</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="6">
+        <v>58</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2675,19 +2683,19 @@
       <c r="E56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="8"/>
+      <c r="F56" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" ht="19">
-      <c r="A57" s="7">
+      <c r="A57" s="14">
         <v>45523</v>
       </c>
-      <c r="B57" s="8">
-        <v>55</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="6">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2696,17 +2704,17 @@
       <c r="E57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="8"/>
+      <c r="F57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" ht="19">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8">
-        <v>56</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="A58" s="14"/>
+      <c r="B58" s="6">
+        <v>60</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -2715,19 +2723,19 @@
       <c r="E58" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="8"/>
+      <c r="F58" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" ht="19">
-      <c r="A59" s="7">
+      <c r="A59" s="14">
         <v>45524</v>
       </c>
-      <c r="B59" s="8">
-        <v>57</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="6">
+        <v>61</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>204</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2736,17 +2744,17 @@
       <c r="E59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="8"/>
+      <c r="F59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" ht="19">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8">
-        <v>58</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="A60" s="14"/>
+      <c r="B60" s="6">
+        <v>62</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>206</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -2755,19 +2763,19 @@
       <c r="E60" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" s="8"/>
+      <c r="F60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" ht="19">
-      <c r="A61" s="7">
+      <c r="A61" s="14">
         <v>45525</v>
       </c>
-      <c r="B61" s="8">
-        <v>59</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="6">
+        <v>63</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -2776,17 +2784,17 @@
       <c r="E61" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F61" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="8"/>
+      <c r="F61" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="19">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8">
-        <v>60</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="A62" s="14"/>
+      <c r="B62" s="6">
+        <v>64</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -2795,19 +2803,19 @@
       <c r="E62" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" s="8"/>
+      <c r="F62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" ht="19">
-      <c r="A63" s="7">
+      <c r="A63" s="14">
         <v>45526</v>
       </c>
-      <c r="B63" s="8">
-        <v>61</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="6">
+        <v>65</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2816,17 +2824,17 @@
       <c r="E63" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" s="8"/>
+      <c r="F63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" ht="19">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8">
-        <v>62</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="6">
+        <v>66</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>214</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -2835,19 +2843,19 @@
       <c r="E64" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="8"/>
+      <c r="F64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" ht="19">
-      <c r="A65" s="7">
+      <c r="A65" s="14">
         <v>45527</v>
       </c>
-      <c r="B65" s="8">
-        <v>63</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="6">
+        <v>67</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>216</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -2856,17 +2864,17 @@
       <c r="E65" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="8"/>
+      <c r="F65" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" ht="19">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8">
-        <v>64</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="A66" s="14"/>
+      <c r="B66" s="6">
+        <v>68</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -2875,19 +2883,19 @@
       <c r="E66" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="8"/>
+      <c r="F66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" ht="19">
-      <c r="A67" s="7">
+      <c r="A67" s="14">
         <v>45528</v>
       </c>
-      <c r="B67" s="8">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="6">
+        <v>69</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -2896,17 +2904,17 @@
       <c r="E67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" s="8"/>
+      <c r="F67" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" ht="19">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8">
-        <v>66</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="6">
+        <v>70</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2915,19 +2923,19 @@
       <c r="E68" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" s="8"/>
+      <c r="F68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" ht="19">
-      <c r="A69" s="7">
+      <c r="A69" s="14">
         <v>45529</v>
       </c>
-      <c r="B69" s="8">
-        <v>67</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="6">
+        <v>71</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -2936,17 +2944,17 @@
       <c r="E69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="8"/>
+      <c r="F69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" ht="19">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8">
-        <v>68</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="A70" s="14"/>
+      <c r="B70" s="6">
+        <v>72</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2955,19 +2963,19 @@
       <c r="E70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" s="8"/>
+      <c r="F70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" ht="19">
-      <c r="A71" s="7">
+      <c r="A71" s="14">
         <v>45530</v>
       </c>
-      <c r="B71" s="8">
-        <v>69</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="6">
+        <v>73</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>228</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2976,17 +2984,17 @@
       <c r="E71" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" s="8"/>
+      <c r="F71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" ht="19">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8">
-        <v>70</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="A72" s="14"/>
+      <c r="B72" s="6">
+        <v>74</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D72" s="4" t="s">
@@ -2995,19 +3003,19 @@
       <c r="E72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="8"/>
+      <c r="F72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" ht="19">
-      <c r="A73" s="7">
+      <c r="A73" s="14">
         <v>45531</v>
       </c>
-      <c r="B73" s="8">
-        <v>71</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="6">
+        <v>75</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>232</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -3016,17 +3024,17 @@
       <c r="E73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="8"/>
+      <c r="F73" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" ht="19">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8">
-        <v>72</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="6">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>234</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -3035,19 +3043,19 @@
       <c r="E74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" s="8"/>
+      <c r="F74" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" ht="19">
-      <c r="A75" s="7">
+      <c r="A75" s="14">
         <v>45532</v>
       </c>
-      <c r="B75" s="8">
-        <v>73</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="6">
+        <v>77</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>236</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -3056,17 +3064,17 @@
       <c r="E75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" s="8"/>
+      <c r="F75" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" ht="19">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8">
-        <v>74</v>
-      </c>
-      <c r="C76" s="8" t="s">
+      <c r="A76" s="14"/>
+      <c r="B76" s="6">
+        <v>78</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>238</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -3075,19 +3083,19 @@
       <c r="E76" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G76" s="8"/>
+      <c r="F76" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" ht="19">
-      <c r="A77" s="7">
+      <c r="A77" s="14">
         <v>45533</v>
       </c>
-      <c r="B77" s="8">
-        <v>75</v>
-      </c>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="6">
+        <v>79</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>240</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -3096,17 +3104,17 @@
       <c r="E77" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" s="8"/>
+      <c r="F77" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" ht="19">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8">
-        <v>76</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="6">
+        <v>80</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>242</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -3115,19 +3123,19 @@
       <c r="E78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="8"/>
+      <c r="F78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" ht="19">
-      <c r="A79" s="7">
+      <c r="A79" s="14">
         <v>45534</v>
       </c>
-      <c r="B79" s="8">
-        <v>77</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="6">
+        <v>81</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -3136,17 +3144,17 @@
       <c r="E79" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" s="8"/>
+      <c r="F79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" ht="19">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8">
-        <v>78</v>
-      </c>
-      <c r="C80" s="8" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="6">
+        <v>82</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -3155,2128 +3163,2239 @@
       <c r="E80" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="8"/>
+      <c r="F80" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="7">
+      <c r="A81" s="14">
         <v>45535</v>
       </c>
-      <c r="B81" s="8">
-        <v>79</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="12"/>
+      <c r="B81" s="6">
+        <v>83</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="8"/>
+      <c r="F81" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8">
-        <v>80</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="12"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="6">
+        <v>84</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="8"/>
+      <c r="F82" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="7">
+      <c r="A83" s="14">
         <v>45536</v>
       </c>
-      <c r="B83" s="8">
-        <v>81</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="6">
+        <v>85</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="8"/>
+      <c r="F83" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="7"/>
-      <c r="B84" s="8">
-        <v>82</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="6">
+        <v>86</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G84" s="8"/>
+      <c r="F84" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="7">
+      <c r="A85" s="14">
         <v>45537</v>
       </c>
-      <c r="B85" s="8">
-        <v>83</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="12"/>
+      <c r="B85" s="6">
+        <v>87</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G85" s="8"/>
+      <c r="F85" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8">
-        <v>84</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="12"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="6">
+        <v>88</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="8"/>
+      <c r="F86" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="7">
+      <c r="A87" s="14">
         <v>45538</v>
       </c>
-      <c r="B87" s="8">
-        <v>85</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="12"/>
+      <c r="B87" s="6">
+        <v>89</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G87" s="8"/>
+      <c r="F87" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8">
-        <v>86</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="12"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="6">
+        <v>90</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="9"/>
       <c r="E88" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G88" s="8"/>
+      <c r="F88" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="7">
+      <c r="A89" s="14">
         <v>45539</v>
       </c>
-      <c r="B89" s="8">
-        <v>87</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="12"/>
+      <c r="B89" s="6">
+        <v>91</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G89" s="8"/>
+      <c r="F89" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8">
-        <v>88</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="6">
+        <v>92</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="9"/>
       <c r="E90" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="8"/>
+      <c r="F90" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="7">
+      <c r="A91" s="14">
         <v>45540</v>
       </c>
-      <c r="B91" s="8">
-        <v>89</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="12"/>
+      <c r="B91" s="6">
+        <v>93</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="9"/>
       <c r="E91" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="8"/>
+      <c r="F91" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8">
-        <v>90</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="6">
+        <v>94</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="9"/>
       <c r="E92" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F92" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="8"/>
+      <c r="F92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="15">
         <v>45541</v>
       </c>
-      <c r="B93" s="8">
-        <v>91</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="12"/>
+      <c r="B93" s="6">
+        <v>95</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="9"/>
       <c r="E93" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93" s="8"/>
+      <c r="F93" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="15"/>
-      <c r="B94" s="8">
-        <v>92</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="12"/>
+      <c r="B94" s="6">
+        <v>96</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F94" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="8"/>
+      <c r="F94" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="7">
+      <c r="A95" s="14">
         <v>45542</v>
       </c>
-      <c r="B95" s="8">
-        <v>93</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="12"/>
+      <c r="B95" s="6">
+        <v>97</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="9"/>
       <c r="E95" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G95" s="8"/>
+      <c r="F95" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8">
-        <v>94</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="12"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="6">
+        <v>98</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="9"/>
       <c r="E96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F96" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="8"/>
+      <c r="F96" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="7">
+      <c r="A97" s="14">
         <v>45543</v>
       </c>
-      <c r="B97" s="8">
-        <v>95</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="12"/>
+      <c r="B97" s="6">
+        <v>99</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="8"/>
+      <c r="F97" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8">
-        <v>96</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="12"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="6">
+        <v>100</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G98" s="8"/>
+      <c r="F98" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="7">
+      <c r="A99" s="14">
         <v>45544</v>
       </c>
-      <c r="B99" s="8">
-        <v>97</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="12"/>
+      <c r="B99" s="6">
+        <v>101</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F99" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G99" s="8"/>
+      <c r="F99" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8">
-        <v>98</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="6">
+        <v>102</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G100" s="8"/>
+      <c r="F100" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="7">
+      <c r="A101" s="14">
         <v>45545</v>
       </c>
-      <c r="B101" s="8">
-        <v>99</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="12"/>
+      <c r="B101" s="6">
+        <v>103</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="9"/>
       <c r="E101" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G101" s="8"/>
+      <c r="F101" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8">
-        <v>100</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="12"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="6">
+        <v>104</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G102" s="8"/>
+      <c r="F102" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7">
+      <c r="A103" s="14">
         <v>45546</v>
       </c>
-      <c r="B103" s="8">
-        <v>101</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="12"/>
+      <c r="B103" s="6">
+        <v>105</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="9"/>
       <c r="E103" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G103" s="8"/>
+      <c r="F103" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8">
-        <v>102</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="12"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="6">
+        <v>106</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="9"/>
       <c r="E104" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F104" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G104" s="8"/>
+      <c r="F104" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="7">
+      <c r="A105" s="14">
         <v>45547</v>
       </c>
-      <c r="B105" s="8">
-        <v>103</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="12"/>
+      <c r="B105" s="6">
+        <v>107</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="9"/>
       <c r="E105" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F105" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105" s="8"/>
+      <c r="F105" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8">
-        <v>104</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="12"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="6">
+        <v>108</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="9"/>
       <c r="E106" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G106" s="8"/>
+      <c r="F106" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7">
+      <c r="A107" s="14">
         <v>45548</v>
       </c>
-      <c r="B107" s="8">
-        <v>105</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="12"/>
+      <c r="B107" s="6">
+        <v>109</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="9"/>
       <c r="E107" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F107" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G107" s="8"/>
+      <c r="F107" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="7"/>
-      <c r="B108" s="8">
-        <v>106</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="12"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="6">
+        <v>110</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="9"/>
       <c r="E108" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G108" s="8"/>
+      <c r="F108" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="7">
+      <c r="A109" s="14">
         <v>45549</v>
       </c>
-      <c r="B109" s="8">
-        <v>107</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="12"/>
+      <c r="B109" s="6">
+        <v>111</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="9"/>
       <c r="E109" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G109" s="8"/>
+      <c r="F109" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" ht="19">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8">
-        <v>108</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="6">
+        <v>112</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G110" s="8"/>
+      <c r="F110" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" ht="19">
-      <c r="A111" s="7">
+      <c r="A111" s="14">
         <v>45550</v>
       </c>
-      <c r="B111" s="8">
-        <v>109</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="12"/>
+      <c r="B111" s="6">
+        <v>113</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G111" s="8"/>
+      <c r="F111" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" ht="19">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8">
-        <v>110</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="12"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="6">
+        <v>114</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G112" s="8"/>
+      <c r="F112" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" ht="19">
-      <c r="A113" s="7">
+      <c r="A113" s="14">
         <v>45551</v>
       </c>
-      <c r="B113" s="8">
-        <v>111</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="12"/>
+      <c r="B113" s="6">
+        <v>115</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G113" s="8"/>
+      <c r="F113" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" ht="19">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8">
-        <v>112</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="12"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="6">
+        <v>116</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G114" s="8"/>
+      <c r="F114" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" ht="19">
-      <c r="A115" s="7">
+      <c r="A115" s="14">
         <v>45552</v>
       </c>
-      <c r="B115" s="8">
-        <v>113</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="12"/>
+      <c r="B115" s="6">
+        <v>117</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G115" s="8"/>
+      <c r="F115" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" ht="19">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8">
-        <v>114</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="12"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="6">
+        <v>118</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="9"/>
       <c r="E116" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F116" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G116" s="8"/>
+      <c r="F116" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" ht="19">
-      <c r="A117" s="7">
+      <c r="A117" s="14">
         <v>45553</v>
       </c>
-      <c r="B117" s="8">
-        <v>115</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="12"/>
+      <c r="B117" s="6">
+        <v>119</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="9"/>
       <c r="E117" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F117" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G117" s="8"/>
+      <c r="F117" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" ht="19">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8">
-        <v>116</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="12"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="6">
+        <v>120</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="9"/>
       <c r="E118" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G118" s="8"/>
+      <c r="F118" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" ht="19">
-      <c r="A119" s="7">
+      <c r="A119" s="14">
         <v>45554</v>
       </c>
-      <c r="B119" s="8">
-        <v>117</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="12"/>
+      <c r="B119" s="6">
+        <v>121</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="9"/>
       <c r="E119" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G119" s="8"/>
+      <c r="F119" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" ht="19">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8">
-        <v>118</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="12"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="6">
+        <v>122</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="9"/>
       <c r="E120" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F120" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G120" s="8"/>
+      <c r="F120" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" ht="19">
-      <c r="A121" s="7">
+      <c r="A121" s="14">
         <v>45555</v>
       </c>
-      <c r="B121" s="8">
-        <v>119</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="12"/>
+      <c r="B121" s="6">
+        <v>123</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="9"/>
       <c r="E121" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G121" s="8"/>
+      <c r="F121" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" ht="19">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8">
-        <v>120</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="12"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="6">
+        <v>124</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="9"/>
       <c r="E122" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F122" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G122" s="8"/>
+      <c r="F122" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" ht="19">
-      <c r="A123" s="7">
+      <c r="A123" s="14">
         <v>45556</v>
       </c>
-      <c r="B123" s="8">
-        <v>121</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="12"/>
+      <c r="B123" s="6">
+        <v>125</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="9"/>
       <c r="E123" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G123" s="8"/>
+      <c r="F123" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" ht="19">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8">
-        <v>122</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="12"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="6">
+        <v>126</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="9"/>
       <c r="E124" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G124" s="8"/>
+      <c r="F124" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" ht="19">
-      <c r="A125" s="7">
+      <c r="A125" s="14">
         <v>45557</v>
       </c>
-      <c r="B125" s="8">
-        <v>123</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="12"/>
+      <c r="B125" s="6">
+        <v>127</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F125" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G125" s="8"/>
+      <c r="F125" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" ht="19">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8">
-        <v>124</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="12"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="6">
+        <v>128</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G126" s="8"/>
+      <c r="F126" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" ht="19">
-      <c r="A127" s="7">
+      <c r="A127" s="14">
         <v>45558</v>
       </c>
-      <c r="B127" s="8">
-        <v>125</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="12"/>
+      <c r="B127" s="6">
+        <v>129</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="9"/>
       <c r="E127" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G127" s="8"/>
+      <c r="F127" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" ht="19">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8">
-        <v>126</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="12"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="6">
+        <v>130</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G128" s="8"/>
+      <c r="F128" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" ht="19">
-      <c r="A129" s="7">
+      <c r="A129" s="14">
         <v>45559</v>
       </c>
-      <c r="B129" s="8">
-        <v>127</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="12"/>
+      <c r="B129" s="6">
+        <v>131</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F129" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G129" s="8"/>
+      <c r="F129" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" ht="19">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8">
-        <v>128</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="6">
+        <v>132</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F130" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G130" s="8"/>
+      <c r="F130" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" ht="19">
-      <c r="A131" s="7">
+      <c r="A131" s="14">
         <v>45560</v>
       </c>
-      <c r="B131" s="8">
-        <v>129</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="12"/>
+      <c r="B131" s="6">
+        <v>133</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F131" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G131" s="8"/>
+      <c r="F131" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" ht="19">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8">
-        <v>130</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="12"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="6">
+        <v>134</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="9"/>
       <c r="E132" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F132" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G132" s="8"/>
+      <c r="F132" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" ht="19">
-      <c r="A133" s="7">
+      <c r="A133" s="14">
         <v>45561</v>
       </c>
-      <c r="B133" s="8">
-        <v>131</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="12"/>
+      <c r="B133" s="6">
+        <v>135</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="9"/>
       <c r="E133" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G133" s="8"/>
+      <c r="F133" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" ht="19">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8">
-        <v>132</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="12"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="6">
+        <v>136</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="9"/>
       <c r="E134" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G134" s="8"/>
+      <c r="F134" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" ht="19">
-      <c r="A135" s="7">
+      <c r="A135" s="14">
         <v>45562</v>
       </c>
-      <c r="B135" s="8">
-        <v>133</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="12"/>
+      <c r="B135" s="6">
+        <v>137</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="9"/>
       <c r="E135" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F135" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G135" s="8"/>
+      <c r="F135" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" ht="19">
-      <c r="A136" s="7"/>
-      <c r="B136" s="8">
-        <v>134</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="12"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="6">
+        <v>138</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="9"/>
       <c r="E136" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G136" s="8"/>
+      <c r="F136" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" ht="19">
-      <c r="A137" s="7">
+      <c r="A137" s="14">
         <v>45563</v>
       </c>
-      <c r="B137" s="8">
-        <v>135</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="12"/>
+      <c r="B137" s="6">
+        <v>139</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="9"/>
       <c r="E137" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G137" s="8"/>
+      <c r="F137" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="19">
-      <c r="A138" s="7"/>
-      <c r="B138" s="8">
-        <v>136</v>
-      </c>
-      <c r="C138" s="8"/>
-      <c r="D138" s="12"/>
+      <c r="A138" s="14"/>
+      <c r="B138" s="6">
+        <v>140</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G138" s="8"/>
+      <c r="F138" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" ht="19">
-      <c r="A139" s="7">
+      <c r="A139" s="14">
         <v>45564</v>
       </c>
-      <c r="B139" s="8">
-        <v>137</v>
-      </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="12"/>
+      <c r="B139" s="6">
+        <v>141</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G139" s="8"/>
+      <c r="F139" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" ht="19">
-      <c r="A140" s="7"/>
-      <c r="B140" s="8">
-        <v>138</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="14"/>
+      <c r="B140" s="6">
+        <v>142</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G140" s="8"/>
+      <c r="F140" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" ht="19">
-      <c r="A141" s="7">
+      <c r="A141" s="14">
         <v>45565</v>
       </c>
-      <c r="B141" s="8">
-        <v>139</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="12"/>
+      <c r="B141" s="6">
+        <v>143</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F141" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G141" s="8"/>
+      <c r="F141" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" ht="19">
-      <c r="A142" s="7"/>
-      <c r="B142" s="8">
-        <v>140</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="12"/>
+      <c r="A142" s="14"/>
+      <c r="B142" s="6">
+        <v>144</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="9"/>
       <c r="E142" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G142" s="8"/>
+      <c r="F142" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" ht="19">
-      <c r="A143" s="7">
+      <c r="A143" s="14">
         <v>45566</v>
       </c>
-      <c r="B143" s="8">
-        <v>141</v>
-      </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="12"/>
+      <c r="B143" s="6">
+        <v>145</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F143" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G143" s="8"/>
+      <c r="F143" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" ht="19">
-      <c r="A144" s="7"/>
-      <c r="B144" s="8">
-        <v>142</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="12"/>
+      <c r="A144" s="14"/>
+      <c r="B144" s="6">
+        <v>146</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F144" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G144" s="8"/>
+      <c r="F144" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G144" s="6"/>
     </row>
     <row r="145" spans="1:7" ht="19">
-      <c r="A145" s="7">
+      <c r="A145" s="14">
         <v>45567</v>
       </c>
-      <c r="B145" s="8">
-        <v>143</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="12"/>
+      <c r="B145" s="6">
+        <v>147</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="9"/>
       <c r="E145" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F145" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G145" s="8"/>
+      <c r="F145" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G145" s="6"/>
     </row>
     <row r="146" spans="1:7" ht="19">
-      <c r="A146" s="7"/>
-      <c r="B146" s="8">
-        <v>144</v>
-      </c>
-      <c r="C146" s="8"/>
-      <c r="D146" s="12"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="6">
+        <v>148</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="9"/>
       <c r="E146" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F146" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G146" s="8"/>
+      <c r="F146" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G146" s="6"/>
     </row>
     <row r="147" spans="1:7" ht="19">
-      <c r="A147" s="7">
+      <c r="A147" s="14">
         <v>45568</v>
       </c>
-      <c r="B147" s="8">
-        <v>145</v>
-      </c>
-      <c r="C147" s="8"/>
-      <c r="D147" s="12"/>
+      <c r="B147" s="6">
+        <v>149</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="9"/>
       <c r="E147" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G147" s="8"/>
+      <c r="F147" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G147" s="6"/>
     </row>
     <row r="148" spans="1:7" ht="19">
-      <c r="A148" s="7"/>
-      <c r="B148" s="8">
-        <v>146</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="12"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="6">
+        <v>150</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="9"/>
       <c r="E148" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F148" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G148" s="8"/>
+      <c r="F148" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" ht="19">
-      <c r="A149" s="7">
+      <c r="A149" s="14">
         <v>45569</v>
       </c>
-      <c r="B149" s="8">
-        <v>147</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="12"/>
+      <c r="B149" s="6">
+        <v>151</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="9"/>
       <c r="E149" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="F149" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G149" s="8"/>
+      <c r="F149" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G149" s="6"/>
     </row>
     <row r="150" spans="1:7" ht="19">
-      <c r="A150" s="7"/>
-      <c r="B150" s="8">
-        <v>148</v>
-      </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="14"/>
+      <c r="B150" s="6">
+        <v>152</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="9"/>
       <c r="E150" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="F150" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G150" s="8"/>
+      <c r="F150" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="1:7" ht="19">
-      <c r="A151" s="7">
+      <c r="A151" s="14">
         <v>45570</v>
       </c>
-      <c r="B151" s="8">
-        <v>149</v>
-      </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="12"/>
+      <c r="B151" s="6">
+        <v>153</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="9"/>
       <c r="E151" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F151" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G151" s="8"/>
+      <c r="F151" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G151" s="6"/>
     </row>
     <row r="152" spans="1:7" ht="19">
-      <c r="A152" s="7"/>
-      <c r="B152" s="8">
-        <v>150</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="12"/>
+      <c r="A152" s="14"/>
+      <c r="B152" s="6">
+        <v>154</v>
+      </c>
+      <c r="C152" s="6"/>
+      <c r="D152" s="9"/>
       <c r="E152" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F152" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G152" s="8"/>
+      <c r="F152" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G152" s="6"/>
     </row>
     <row r="153" spans="1:7" ht="19">
-      <c r="A153" s="7">
+      <c r="A153" s="14">
         <v>45571</v>
       </c>
-      <c r="B153" s="8">
-        <v>151</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="12"/>
+      <c r="B153" s="6">
+        <v>155</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="9"/>
       <c r="E153" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F153" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G153" s="8"/>
+      <c r="F153" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" ht="19">
-      <c r="A154" s="7"/>
-      <c r="B154" s="8">
-        <v>152</v>
-      </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="12"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="6">
+        <v>156</v>
+      </c>
+      <c r="C154" s="6"/>
+      <c r="D154" s="9"/>
       <c r="E154" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F154" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G154" s="8"/>
+      <c r="F154" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G154" s="6"/>
     </row>
     <row r="155" spans="1:7" ht="19">
-      <c r="A155" s="7">
+      <c r="A155" s="14">
         <v>45572</v>
       </c>
-      <c r="B155" s="8">
-        <v>153</v>
-      </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="12"/>
+      <c r="B155" s="6">
+        <v>157</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="9"/>
       <c r="E155" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F155" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G155" s="8"/>
+      <c r="F155" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G155" s="6"/>
     </row>
     <row r="156" spans="1:7" ht="19">
-      <c r="A156" s="7"/>
-      <c r="B156" s="8">
-        <v>154</v>
-      </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="12"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="6">
+        <v>158</v>
+      </c>
+      <c r="C156" s="6"/>
+      <c r="D156" s="9"/>
       <c r="E156" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G156" s="8"/>
+      <c r="F156" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G156" s="6"/>
     </row>
     <row r="157" spans="1:7" ht="19">
-      <c r="A157" s="7">
+      <c r="A157" s="14">
         <v>45573</v>
       </c>
-      <c r="B157" s="8">
-        <v>155</v>
-      </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="12"/>
+      <c r="B157" s="6">
+        <v>159</v>
+      </c>
+      <c r="C157" s="6"/>
+      <c r="D157" s="9"/>
       <c r="E157" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F157" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G157" s="8"/>
+      <c r="F157" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" ht="19">
-      <c r="A158" s="7"/>
-      <c r="B158" s="8">
-        <v>156</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="12"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="6">
+        <v>160</v>
+      </c>
+      <c r="C158" s="6"/>
+      <c r="D158" s="9"/>
       <c r="E158" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F158" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G158" s="8"/>
+      <c r="F158" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" ht="19">
-      <c r="A159" s="7">
+      <c r="A159" s="14">
         <v>45574</v>
       </c>
-      <c r="B159" s="8">
-        <v>157</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="12"/>
+      <c r="B159" s="6">
+        <v>161</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F159" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G159" s="8"/>
+      <c r="F159" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G159" s="6"/>
     </row>
     <row r="160" spans="1:7" ht="19">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8">
-        <v>158</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="12"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="6">
+        <v>162</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F160" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G160" s="8"/>
+      <c r="F160" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G160" s="6"/>
     </row>
     <row r="161" spans="1:7" ht="19">
-      <c r="A161" s="7">
+      <c r="A161" s="14">
         <v>45575</v>
       </c>
-      <c r="B161" s="8">
-        <v>159</v>
-      </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="12"/>
+      <c r="B161" s="6">
+        <v>163</v>
+      </c>
+      <c r="C161" s="6"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F161" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G161" s="8"/>
+      <c r="F161" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G161" s="6"/>
     </row>
     <row r="162" spans="1:7" ht="19">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8">
-        <v>160</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="12"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="6">
+        <v>164</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="9"/>
       <c r="E162" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F162" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G162" s="8"/>
+      <c r="F162" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G162" s="6"/>
     </row>
     <row r="163" spans="1:7" ht="19">
-      <c r="A163" s="7">
+      <c r="A163" s="14">
         <v>45576</v>
       </c>
-      <c r="B163" s="8">
-        <v>161</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="12"/>
+      <c r="B163" s="6">
+        <v>165</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="9"/>
       <c r="E163" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="F163" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G163" s="8"/>
+      <c r="F163" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" ht="19">
-      <c r="A164" s="7"/>
-      <c r="B164" s="8">
-        <v>162</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="12"/>
+      <c r="A164" s="14"/>
+      <c r="B164" s="6">
+        <v>166</v>
+      </c>
+      <c r="C164" s="6"/>
+      <c r="D164" s="9"/>
       <c r="E164" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F164" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G164" s="8"/>
+      <c r="F164" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G164" s="6"/>
     </row>
     <row r="165" spans="1:7" ht="19">
-      <c r="A165" s="7">
+      <c r="A165" s="14">
         <v>45577</v>
       </c>
-      <c r="B165" s="8">
-        <v>163</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="12"/>
+      <c r="B165" s="6">
+        <v>167</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="9"/>
       <c r="E165" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F165" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G165" s="8"/>
+      <c r="F165" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G165" s="6"/>
     </row>
     <row r="166" spans="1:7" ht="19">
-      <c r="A166" s="7"/>
-      <c r="B166" s="8">
-        <v>164</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="12"/>
+      <c r="A166" s="14"/>
+      <c r="B166" s="6">
+        <v>168</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="9"/>
       <c r="E166" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F166" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G166" s="8"/>
+      <c r="F166" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G166" s="6"/>
     </row>
     <row r="167" spans="1:7" ht="19">
-      <c r="A167" s="7">
+      <c r="A167" s="14">
         <v>45578</v>
       </c>
-      <c r="B167" s="8">
-        <v>165</v>
-      </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="12"/>
+      <c r="B167" s="6">
+        <v>169</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="9"/>
       <c r="E167" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="F167" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G167" s="8"/>
+      <c r="F167" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:7" ht="19">
-      <c r="A168" s="7"/>
-      <c r="B168" s="8">
-        <v>166</v>
-      </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="12"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="6">
+        <v>170</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="9"/>
       <c r="E168" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F168" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G168" s="8"/>
+      <c r="F168" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" ht="19">
-      <c r="A169" s="7">
+      <c r="A169" s="14">
         <v>45579</v>
       </c>
-      <c r="B169" s="8">
-        <v>167</v>
-      </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="12"/>
+      <c r="B169" s="6">
+        <v>171</v>
+      </c>
+      <c r="C169" s="6"/>
+      <c r="D169" s="9"/>
       <c r="E169" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G169" s="8"/>
+      <c r="F169" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G169" s="6"/>
     </row>
     <row r="170" spans="1:7" ht="19">
-      <c r="A170" s="7"/>
-      <c r="B170" s="8">
-        <v>168</v>
-      </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="6">
+        <v>172</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="9"/>
       <c r="E170" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F170" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G170" s="8"/>
+      <c r="F170" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G170" s="6"/>
     </row>
     <row r="171" spans="1:7" ht="19">
-      <c r="A171" s="7">
+      <c r="A171" s="14">
         <v>45580</v>
       </c>
-      <c r="B171" s="8">
-        <v>169</v>
-      </c>
-      <c r="C171" s="8"/>
-      <c r="D171" s="12"/>
+      <c r="B171" s="6">
+        <v>173</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="9"/>
       <c r="E171" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="F171" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G171" s="8"/>
+      <c r="F171" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G171" s="6"/>
     </row>
     <row r="172" spans="1:7" ht="19">
-      <c r="A172" s="7"/>
-      <c r="B172" s="8">
-        <v>170</v>
-      </c>
-      <c r="C172" s="8"/>
-      <c r="D172" s="12"/>
+      <c r="A172" s="14"/>
+      <c r="B172" s="6">
+        <v>174</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="9"/>
       <c r="E172" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F172" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G172" s="8"/>
+      <c r="F172" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:7" ht="19">
-      <c r="A173" s="7">
+      <c r="A173" s="14">
         <v>45581</v>
       </c>
-      <c r="B173" s="8">
-        <v>171</v>
-      </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="12"/>
+      <c r="B173" s="6">
+        <v>175</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="9"/>
       <c r="E173" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F173" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G173" s="8"/>
+      <c r="F173" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:7" ht="19">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8">
-        <v>172</v>
-      </c>
-      <c r="C174" s="8"/>
-      <c r="D174" s="12"/>
+      <c r="A174" s="14"/>
+      <c r="B174" s="6">
+        <v>176</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="9"/>
       <c r="E174" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F174" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G174" s="8"/>
+      <c r="F174" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:7" ht="19">
-      <c r="A175" s="7">
+      <c r="A175" s="14">
         <v>45582</v>
       </c>
-      <c r="B175" s="8">
-        <v>173</v>
-      </c>
-      <c r="C175" s="8"/>
-      <c r="D175" s="12"/>
+      <c r="B175" s="6">
+        <v>177</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F175" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G175" s="8"/>
+      <c r="F175" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:7" ht="19">
-      <c r="A176" s="7"/>
-      <c r="B176" s="8">
-        <v>174</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="12"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="6">
+        <v>178</v>
+      </c>
+      <c r="C176" s="6"/>
+      <c r="D176" s="9"/>
       <c r="E176" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F176" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G176" s="8"/>
+      <c r="F176" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G176" s="6"/>
     </row>
     <row r="177" spans="1:7" ht="19">
-      <c r="A177" s="7">
+      <c r="A177" s="14">
         <v>45583</v>
       </c>
-      <c r="B177" s="8">
-        <v>175</v>
-      </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="12"/>
+      <c r="B177" s="6">
+        <v>179</v>
+      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="9"/>
       <c r="E177" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F177" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G177" s="8"/>
+      <c r="F177" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:7" ht="19">
-      <c r="A178" s="7"/>
-      <c r="B178" s="8">
-        <v>176</v>
-      </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="12"/>
+      <c r="A178" s="14"/>
+      <c r="B178" s="6">
+        <v>180</v>
+      </c>
+      <c r="C178" s="6"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F178" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G178" s="8"/>
+      <c r="F178" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7" ht="19">
-      <c r="A179" s="7">
+      <c r="A179" s="14">
         <v>45584</v>
       </c>
-      <c r="B179" s="8">
-        <v>177</v>
-      </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="12"/>
+      <c r="B179" s="6">
+        <v>181</v>
+      </c>
+      <c r="C179" s="6"/>
+      <c r="D179" s="9"/>
       <c r="E179" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F179" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G179" s="8"/>
+      <c r="F179" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G179" s="6"/>
     </row>
     <row r="180" spans="1:7" ht="19">
-      <c r="A180" s="7"/>
-      <c r="B180" s="8">
-        <v>178</v>
-      </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="14"/>
+      <c r="B180" s="6">
+        <v>182</v>
+      </c>
+      <c r="C180" s="6"/>
+      <c r="D180" s="9"/>
       <c r="E180" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="F180" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G180" s="8"/>
+      <c r="F180" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="1:7" ht="19">
-      <c r="A181" s="7">
+      <c r="A181" s="14">
         <v>45585</v>
       </c>
-      <c r="B181" s="8">
-        <v>179</v>
-      </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="12"/>
+      <c r="B181" s="6">
+        <v>183</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="9"/>
       <c r="E181" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F181" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G181" s="8"/>
+      <c r="F181" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G181" s="6"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="7"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="6">
+        <v>184</v>
+      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="7">
+      <c r="A183" s="14">
         <v>45586</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="B183" s="6">
+        <v>185</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="7"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="A184" s="14"/>
+      <c r="B184" s="6">
+        <v>186</v>
+      </c>
+      <c r="C184" s="6"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="7">
+      <c r="A185" s="14">
         <v>45587</v>
       </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
+      <c r="B185" s="6">
+        <v>187</v>
+      </c>
+      <c r="C185" s="6"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="7"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="6">
+        <v>188</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="7">
+      <c r="A187" s="14">
         <v>45588</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
+      <c r="B187" s="6">
+        <v>189</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="7"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
+      <c r="A188" s="14"/>
+      <c r="B188" s="6">
+        <v>190</v>
+      </c>
+      <c r="C188" s="6"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="7">
+      <c r="A189" s="14">
         <v>45589</v>
       </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
+      <c r="B189" s="6">
+        <v>191</v>
+      </c>
+      <c r="C189" s="6"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="7"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
+      <c r="A190" s="14"/>
+      <c r="B190" s="6">
+        <v>192</v>
+      </c>
+      <c r="C190" s="6"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="7">
+      <c r="A191" s="14">
         <v>45590</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
+      <c r="B191" s="6">
+        <v>193</v>
+      </c>
+      <c r="C191" s="6"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="7"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
+      <c r="A192" s="14"/>
+      <c r="B192" s="6">
+        <v>194</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="7">
+      <c r="A193" s="14">
         <v>45591</v>
       </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
+      <c r="B193" s="6">
+        <v>195</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="7"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
+      <c r="A194" s="14"/>
+      <c r="B194" s="6">
+        <v>196</v>
+      </c>
+      <c r="C194" s="6"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="7">
+      <c r="A195" s="14">
         <v>45592</v>
       </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
+      <c r="B195" s="6">
+        <v>197</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="7"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
+      <c r="A196" s="14"/>
+      <c r="B196" s="6">
+        <v>198</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="7">
+      <c r="A197" s="14">
         <v>45593</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
+      <c r="B197" s="6">
+        <v>199</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="7"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
+      <c r="A198" s="14"/>
+      <c r="B198" s="6">
+        <v>200</v>
+      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="7">
+      <c r="A199" s="14">
         <v>45594</v>
       </c>
-      <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
+      <c r="B199" s="6">
+        <v>201</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="7"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
+      <c r="A200" s="14"/>
+      <c r="B200" s="6">
+        <v>202</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="7">
+      <c r="A201" s="14">
         <v>45595</v>
       </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
+      <c r="B201" s="6">
+        <v>203</v>
+      </c>
+      <c r="C201" s="6"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="7"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="6">
+        <v>204</v>
+      </c>
+      <c r="C202" s="6"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="7">
+      <c r="A203" s="14">
         <v>45596</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
+      <c r="B203" s="6">
+        <v>205</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="7"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
+      <c r="A204" s="14"/>
+      <c r="B204" s="6">
+        <v>206</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="7">
+      <c r="A205" s="14">
         <v>45597</v>
       </c>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
+      <c r="B205" s="6">
+        <v>207</v>
+      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="7"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
+      <c r="A206" s="14"/>
+      <c r="B206" s="6">
+        <v>208</v>
+      </c>
+      <c r="C206" s="6"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="7">
+      <c r="A207" s="14">
         <v>45598</v>
       </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
+      <c r="B207" s="6">
+        <v>209</v>
+      </c>
+      <c r="C207" s="6"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="7"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
+      <c r="A208" s="14"/>
+      <c r="B208" s="6">
+        <v>210</v>
+      </c>
+      <c r="C208" s="6"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="7">
+      <c r="A209" s="14">
         <v>45599</v>
       </c>
-      <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
+      <c r="B209" s="6">
+        <v>211</v>
+      </c>
+      <c r="C209" s="6"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="7"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
+      <c r="A210" s="14"/>
+      <c r="B210" s="6">
+        <v>212</v>
+      </c>
+      <c r="C210" s="6"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="7">
+      <c r="A211" s="14">
         <v>45600</v>
       </c>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
+      <c r="B211" s="6">
+        <v>213</v>
+      </c>
+      <c r="C211" s="6"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="7"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="6">
+        <v>214</v>
+      </c>
+      <c r="C212" s="6"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="7">
+      <c r="A213" s="14">
         <v>45601</v>
       </c>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
+      <c r="B213" s="6">
+        <v>215</v>
+      </c>
+      <c r="C213" s="6"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="7"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
+      <c r="A214" s="14"/>
+      <c r="B214" s="6">
+        <v>216</v>
+      </c>
+      <c r="C214" s="6"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="7">
+      <c r="A215" s="14">
         <v>45602</v>
       </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
+      <c r="B215" s="6">
+        <v>217</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="7"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
+      <c r="A216" s="14"/>
+      <c r="B216" s="6">
+        <v>218</v>
+      </c>
+      <c r="C216" s="6"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="7">
+      <c r="A217" s="14">
         <v>45603</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
+      <c r="B217" s="6">
+        <v>219</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="7"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
+      <c r="A218" s="14"/>
+      <c r="B218" s="6">
+        <v>220</v>
+      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="7">
+      <c r="A219" s="14">
         <v>45604</v>
       </c>
-      <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
+      <c r="B219" s="6">
+        <v>221</v>
+      </c>
+      <c r="C219" s="6"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="7"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
+      <c r="A220" s="14"/>
+      <c r="B220" s="6">
+        <v>222</v>
+      </c>
+      <c r="C220" s="6"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="7">
+      <c r="A221" s="14">
         <v>45605</v>
       </c>
+      <c r="B221" s="6">
+        <v>223</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="7"/>
+      <c r="A222" s="14"/>
+      <c r="B222" s="6">
+        <v>224</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="7">
+      <c r="A223" s="14">
         <v>45606</v>
       </c>
+      <c r="B223" s="6">
+        <v>225</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="7"/>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="7">
+      <c r="A224" s="14"/>
+      <c r="B224" s="6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="14">
         <v>45607</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="7"/>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="7">
+      <c r="B225" s="6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="14"/>
+      <c r="B226" s="6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="14">
         <v>45608</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="7"/>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="7">
+      <c r="B227" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="14"/>
+      <c r="B228" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="14">
         <v>45609</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="7"/>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="7">
+      <c r="B229" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="14"/>
+      <c r="B230" s="6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="14">
         <v>45610</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="7"/>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="7">
+      <c r="B231" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="14"/>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="14">
         <v>45611</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="7"/>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="7">
+    <row r="234" spans="1:2">
+      <c r="A234" s="14"/>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="14">
         <v>45612</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="7"/>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="7">
+    <row r="236" spans="1:2">
+      <c r="A236" s="14"/>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="14">
         <v>45613</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="7"/>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="7">
+    <row r="238" spans="1:2">
+      <c r="A238" s="14"/>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="14">
         <v>45614</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="7"/>
+    <row r="240" spans="1:2">
+      <c r="A240" s="14"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="7">
+      <c r="A241" s="14">
         <v>45615</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="7"/>
+      <c r="A242" s="14"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="7">
+      <c r="A243" s="14">
         <v>45616</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="7"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="7">
+      <c r="A245" s="14">
         <v>45617</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="7"/>
+      <c r="A246" s="14"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="7">
+      <c r="A247" s="14">
         <v>45618</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="7"/>
+      <c r="A248" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="128">
@@ -5363,7 +5482,6 @@
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A79:A80"/>
@@ -5373,8 +5491,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
@@ -5383,9 +5499,7 @@
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A23:A24"/>
@@ -5393,40 +5507,45 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A3 A5 A7 A9 A11 A19 A27 A35 A43 A51 A59 A67 A75 A83 A91 A99 A107 A115 A123 A131 A13 A21 A29 A37 A45 A53 A61 A69 A77 A85 A93 A101 A109 A117 A125 A133 A15 A23 A31 A39 A47 A55 A63 A71 A79 A87 A95 A103 A111 A119 A127 A135 A17 A25 A33 A41 A49 A57 A65 A73 A81 A89 A97 A105 A113 A121 A129 A137 A139 A141 A143 A145 A147 A149 A151 A153 A155 A157 A159 A161 A163 A165 A167 A169 A171 A173 A175 A177 A179 A181 A183 A185 A187 A189 A191 A193 A195 A197 A199 A201 A203 A205 A207 A209 A211 A213 A215 A217 A219 A221 A223 A225 A227 A229 A231 A233 A235 A237 A239 A241 A243 A245 A247">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="A1:A3 A5:A1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>45541</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>45590</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>45618</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3 A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39 A41 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71 A73 A75 A77 A79 A81 A83 A85 A87 A89 A91 A93 A95 A97 A99 A101 A103 A105 A107 A109 A111 A113 A115 A117 A119 A121 A123 A125 A127 A129 A131 A133 A135 A137 A139 A141 A143 A145 A147 A149 A151 A153 A155 A157 A159 A161 A163 A165 A167 A169 A171 A173 A175 A177 A179 A181 A183 A185 A187 A189 A191 A193 A195 A197 A199 A201 A203 A205 A207 A209 A211 A213 A215 A217 A219 A221 A223 A225 A227 A229 A231 A233 A235 A237 A239 A241 A243 A245 A247">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>WEEKDAY(A3)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>WEEKDAY(A3)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>45618</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>45590</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>45541</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -5692,5 +5811,8 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;K000000 LGE Internal Use Only&amp;1#_x000D_</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B3:B4" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>